--- a/FUNKCE/graphs/ALL-LIKEE-10-2048.xlsx
+++ b/FUNKCE/graphs/ALL-LIKEE-10-2048.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="549">
   <si>
     <t>seq</t>
   </si>
@@ -2183,6 +2183,683 @@
   </si>
   <si>
     <t>Result:  y = -1.441552584·10-13 x4 </t>
+  </si>
+  <si>
+    <t>0-5k</t>
+  </si>
+  <si>
+    <t>5-20k</t>
+  </si>
+  <si>
+    <t>20-250k</t>
+  </si>
+  <si>
+    <r>
+      <t>y = 1.243800339·10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>-7</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> - 9.234716656·10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>-4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> + 1.575373133 x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> + 304.0855512 x + 400485.747</t>
+    </r>
+  </si>
+  <si>
+    <t> 445736.9998 </t>
+  </si>
+  <si>
+    <t> 6190.000171 </t>
+  </si>
+  <si>
+    <t> 10717.99983 </t>
+  </si>
+  <si>
+    <t> 10413.00017 </t>
+  </si>
+  <si>
+    <t> 82956.00017 </t>
+  </si>
+  <si>
+    <t> 88840.99983 </t>
+  </si>
+  <si>
+    <t> 838711.5999 </t>
+  </si>
+  <si>
+    <t> 171062.4001 </t>
+  </si>
+  <si>
+    <t> 158884.4001 </t>
+  </si>
+  <si>
+    <t> 46489.59992 </t>
+  </si>
+  <si>
+    <t> 151008.5999 </t>
+  </si>
+  <si>
+    <t> 132448.5999 </t>
+  </si>
+  <si>
+    <t> 1480852.8 </t>
+  </si>
+  <si>
+    <t> 450304.7999 </t>
+  </si>
+  <si>
+    <t> 295814.7999 </t>
+  </si>
+  <si>
+    <t> 477330.7999 </t>
+  </si>
+  <si>
+    <t> 400037.7999 </t>
+  </si>
+  <si>
+    <t> 1623488.2 </t>
+  </si>
+  <si>
+    <t> 1912456.6 </t>
+  </si>
+  <si>
+    <t> 45245.39996 </t>
+  </si>
+  <si>
+    <t> 53366.60004 </t>
+  </si>
+  <si>
+    <t> 34423.60004 </t>
+  </si>
+  <si>
+    <t> 12545.60004 </t>
+  </si>
+  <si>
+    <t> 55090.39996 </t>
+  </si>
+  <si>
+    <t> 3608804.8 </t>
+  </si>
+  <si>
+    <t> 784265.8003 </t>
+  </si>
+  <si>
+    <t> 508949.1997 </t>
+  </si>
+  <si>
+    <t> 796945.8003 </t>
+  </si>
+  <si>
+    <t> 487563.1997 </t>
+  </si>
+  <si>
+    <t> 584699.1997 </t>
+  </si>
+  <si>
+    <t>Result:  y = 1.243800339·</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>y = 1.092857643·10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>-5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> - 3.993301536·10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> + 4728.083749 x - 11414432.16</t>
+    </r>
+  </si>
+  <si>
+    <t>ect polynomial degree: </t>
+  </si>
+  <si>
+    <t> 784265.8 </t>
+  </si>
+  <si>
+    <t> 508949.2 </t>
+  </si>
+  <si>
+    <t> 796945.8 </t>
+  </si>
+  <si>
+    <t> 487563.2 </t>
+  </si>
+  <si>
+    <t> 584699.2 </t>
+  </si>
+  <si>
+    <t> 6194368 </t>
+  </si>
+  <si>
+    <t> 98125.99999 </t>
+  </si>
+  <si>
+    <t> 1522008 </t>
+  </si>
+  <si>
+    <t> 719600 </t>
+  </si>
+  <si>
+    <t> 347827 </t>
+  </si>
+  <si>
+    <t> 1248361 </t>
+  </si>
+  <si>
+    <t> 6861966.4 </t>
+  </si>
+  <si>
+    <t> 1335270.4 </t>
+  </si>
+  <si>
+    <t> 709359.4 </t>
+  </si>
+  <si>
+    <t> 1604629.4 </t>
+  </si>
+  <si>
+    <t> 2162691.6 </t>
+  </si>
+  <si>
+    <t> 1486567.6 </t>
+  </si>
+  <si>
+    <t> 10843792.8 </t>
+  </si>
+  <si>
+    <t> 155926.8 </t>
+  </si>
+  <si>
+    <t> 8296.199991 </t>
+  </si>
+  <si>
+    <t> 91235.19999 </t>
+  </si>
+  <si>
+    <t> 349554.8 </t>
+  </si>
+  <si>
+    <t> 405950.2 </t>
+  </si>
+  <si>
+    <t>Result:  y = 1.092857643·1</t>
+  </si>
+  <si>
+    <t> 10385586.36 </t>
+  </si>
+  <si>
+    <t> 302279.645 </t>
+  </si>
+  <si>
+    <t> 466502.645 </t>
+  </si>
+  <si>
+    <t> 549441.645 </t>
+  </si>
+  <si>
+    <t> 108651.645 </t>
+  </si>
+  <si>
+    <t> 864156.645 </t>
+  </si>
+  <si>
+    <t> 15006184.53 </t>
+  </si>
+  <si>
+    <t> 1615928.527 </t>
+  </si>
+  <si>
+    <t> 644532.4726 </t>
+  </si>
+  <si>
+    <t> 1611286.527 </t>
+  </si>
+  <si>
+    <t> 2270345.527 </t>
+  </si>
+  <si>
+    <t> 417952.4726 </t>
+  </si>
+  <si>
+    <t> 22806353.7 </t>
+  </si>
+  <si>
+    <t> 4027167.297 </t>
+  </si>
+  <si>
+    <t> 1250984.703 </t>
+  </si>
+  <si>
+    <t> 2244148.297 </t>
+  </si>
+  <si>
+    <t> 715456.7026 </t>
+  </si>
+  <si>
+    <t> 1500558.703 </t>
+  </si>
+  <si>
+    <t> 30684087.9 </t>
+  </si>
+  <si>
+    <t> 1117624.898 </t>
+  </si>
+  <si>
+    <t> 1570562.102 </t>
+  </si>
+  <si>
+    <t> 2581780.898 </t>
+  </si>
+  <si>
+    <t> 1678526.898 </t>
+  </si>
+  <si>
+    <t> 3472113.102 </t>
+  </si>
+  <si>
+    <t> 37457920.56 </t>
+  </si>
+  <si>
+    <t> 210027.5635 </t>
+  </si>
+  <si>
+    <t> 140826.5635 </t>
+  </si>
+  <si>
+    <t> 2149683.436 </t>
+  </si>
+  <si>
+    <t> 655240.5635 </t>
+  </si>
+  <si>
+    <t> 1528429.564 </t>
+  </si>
+  <si>
+    <t> 65502016.74 </t>
+  </si>
+  <si>
+    <t> 1744108.742 </t>
+  </si>
+  <si>
+    <t> 6707881.258 </t>
+  </si>
+  <si>
+    <t> 5951874.742 </t>
+  </si>
+  <si>
+    <t> 2540656.742 </t>
+  </si>
+  <si>
+    <t> 3615005.258 </t>
+  </si>
+  <si>
+    <t> 81122435.41 </t>
+  </si>
+  <si>
+    <t> 3110356.413 </t>
+  </si>
+  <si>
+    <t> 3646204.587 </t>
+  </si>
+  <si>
+    <t> 621983.4127 </t>
+  </si>
+  <si>
+    <t> 5458081.413 </t>
+  </si>
+  <si>
+    <t> 5517796.587 </t>
+  </si>
+  <si>
+    <t>Result:  y =</t>
+  </si>
+  <si>
+    <r>
+      <t>y = -2.804699165·10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>-14</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> + 1.831345456·10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>-8</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> - 4.039533162·10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>-3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> + 631.0639661 x - 761899.8207</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -12451,10 +13128,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3651AC46-1954-4371-85B6-F873200F4A01}">
-  <dimension ref="A1:BS121"/>
+  <dimension ref="A1:BS214"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P115" sqref="P115"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12888,284 +13565,284 @@
     </row>
     <row r="3" spans="1:71" x14ac:dyDescent="0.25">
       <c r="B3">
-        <f>-2.122995457*10^(-14)*B1^4+1.420924749*10^(-8)*B1^3-3.200922092*10^(-3)*B1^2+564.7181681*B1+904999.7602</f>
-        <v>961439.58199620456</v>
+        <f>-2.804699165*10^(-14)*B1^4+1.831345456*10^(-8)*B1^3-4.039533162*10^(-3)*B1^2+631.0639661*B1-761899.8207</f>
+        <v>-698833.80111097021</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:BN3" si="0">-2.122995457*10^(-14)*C1^4+1.420924749*10^(-8)*C1^3-3.200922092*10^(-3)*C1^2+564.7181681*C1+904999.7602</f>
-        <v>961439.58199620456</v>
+        <f t="shared" ref="C3:BN3" si="0">-2.804699165*10^(-14)*C1^4+1.831345456*10^(-8)*C1^3-4.039533162*10^(-3)*C1^2+631.0639661*C1-761899.8207</f>
+        <v>-698833.80111097021</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>961439.58199620456</v>
+        <v>-698833.80111097021</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>961439.58199620456</v>
+        <v>-698833.80111097021</v>
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
-        <v>961439.58199620456</v>
+        <v>-698833.80111097021</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>1186560.3885560641</v>
+        <v>-447375.43351161701</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>1186560.3885560641</v>
+        <v>-447375.43351161701</v>
       </c>
       <c r="I3">
         <f t="shared" si="0"/>
-        <v>1186560.3885560641</v>
+        <v>-447375.43351161701</v>
       </c>
       <c r="J3">
         <f t="shared" si="0"/>
-        <v>1186560.3885560641</v>
+        <v>-447375.43351161701</v>
       </c>
       <c r="K3">
         <f t="shared" si="0"/>
-        <v>1186560.3885560641</v>
+        <v>-447375.43351161701</v>
       </c>
       <c r="L3">
         <f t="shared" si="0"/>
-        <v>1466531.1942255355</v>
+        <v>-134857.10235443176</v>
       </c>
       <c r="M3">
         <f t="shared" si="0"/>
-        <v>1466531.1942255355</v>
+        <v>-134857.10235443176</v>
       </c>
       <c r="N3">
         <f t="shared" si="0"/>
-        <v>1466531.1942255355</v>
+        <v>-134857.10235443176</v>
       </c>
       <c r="O3">
         <f t="shared" si="0"/>
-        <v>1466531.1942255355</v>
+        <v>-134857.10235443176</v>
       </c>
       <c r="P3">
         <f t="shared" si="0"/>
-        <v>1466531.1942255355</v>
+        <v>-134857.10235443176</v>
       </c>
       <c r="Q3">
         <f t="shared" si="0"/>
-        <v>2021745.7423326471</v>
+        <v>484216.03773661354</v>
       </c>
       <c r="R3">
         <f t="shared" si="0"/>
-        <v>2021745.7423326471</v>
+        <v>484216.03773661354</v>
       </c>
       <c r="S3">
         <f t="shared" si="0"/>
-        <v>2021745.7423326471</v>
+        <v>484216.03773661354</v>
       </c>
       <c r="T3">
         <f t="shared" si="0"/>
-        <v>2021745.7423326471</v>
+        <v>484216.03773661354</v>
       </c>
       <c r="U3">
         <f t="shared" si="0"/>
-        <v>2021745.7423326471</v>
+        <v>484216.03773661354</v>
       </c>
       <c r="V3">
         <f t="shared" si="0"/>
-        <v>3650330.4356146436</v>
+        <v>2294703.3332002191</v>
       </c>
       <c r="W3">
         <f t="shared" si="0"/>
-        <v>3650330.4356146436</v>
+        <v>2294703.3332002191</v>
       </c>
       <c r="X3">
         <f t="shared" si="0"/>
-        <v>3650330.4356146436</v>
+        <v>2294703.3332002191</v>
       </c>
       <c r="Y3">
         <f t="shared" si="0"/>
-        <v>3650330.4356146436</v>
+        <v>2294703.3332002191</v>
       </c>
       <c r="Z3">
         <f t="shared" si="0"/>
-        <v>3650330.4356146436</v>
+        <v>2294703.3332002191</v>
       </c>
       <c r="AA3">
         <f t="shared" si="0"/>
-        <v>4966261.5066567119</v>
+        <v>3751493.4308954822</v>
       </c>
       <c r="AB3">
         <f t="shared" si="0"/>
-        <v>4966261.5066567119</v>
+        <v>3751493.4308954822</v>
       </c>
       <c r="AC3">
         <f t="shared" si="0"/>
-        <v>4966261.5066567119</v>
+        <v>3751493.4308954822</v>
       </c>
       <c r="AD3">
         <f t="shared" si="0"/>
-        <v>4966261.5066567119</v>
+        <v>3751493.4308954822</v>
       </c>
       <c r="AE3">
         <f t="shared" si="0"/>
-        <v>4966261.5066567119</v>
+        <v>3751493.4308954822</v>
       </c>
       <c r="AF3">
         <f t="shared" si="0"/>
-        <v>6246086.1799443001</v>
+        <v>5162819.5087435003</v>
       </c>
       <c r="AG3">
         <f t="shared" si="0"/>
-        <v>6246086.1799443001</v>
+        <v>5162819.5087435003</v>
       </c>
       <c r="AH3">
         <f t="shared" si="0"/>
-        <v>6246086.1799443001</v>
+        <v>5162819.5087435003</v>
       </c>
       <c r="AI3">
         <f t="shared" si="0"/>
-        <v>6246086.1799443001</v>
+        <v>5162819.5087435003</v>
       </c>
       <c r="AJ3">
         <f t="shared" si="0"/>
-        <v>6246086.1799443001</v>
+        <v>5162819.5087435003</v>
       </c>
       <c r="AK3">
         <f t="shared" si="0"/>
-        <v>11029271.4725888</v>
+        <v>10385586.354316</v>
       </c>
       <c r="AL3">
         <f t="shared" si="0"/>
-        <v>11029271.4725888</v>
+        <v>10385586.354316</v>
       </c>
       <c r="AM3">
         <f t="shared" si="0"/>
-        <v>11029271.4725888</v>
+        <v>10385586.354316</v>
       </c>
       <c r="AN3">
         <f t="shared" si="0"/>
-        <v>11029271.4725888</v>
+        <v>10385586.354316</v>
       </c>
       <c r="AO3">
         <f t="shared" si="0"/>
-        <v>11029271.4725888</v>
+        <v>10385586.354316</v>
       </c>
       <c r="AP3">
         <f t="shared" si="0"/>
-        <v>15332168.339428296</v>
+        <v>15006184.526383501</v>
       </c>
       <c r="AQ3">
         <f t="shared" si="0"/>
-        <v>15332168.339428296</v>
+        <v>15006184.526383501</v>
       </c>
       <c r="AR3">
         <f t="shared" si="0"/>
-        <v>15332168.339428296</v>
+        <v>15006184.526383501</v>
       </c>
       <c r="AS3">
         <f t="shared" si="0"/>
-        <v>15332168.339428296</v>
+        <v>15006184.526383501</v>
       </c>
       <c r="AT3">
         <f t="shared" si="0"/>
-        <v>15332168.339428296</v>
+        <v>15006184.526383501</v>
       </c>
       <c r="AU3">
         <f t="shared" si="0"/>
-        <v>22782071.655387498</v>
+        <v>22806353.7014875</v>
       </c>
       <c r="AV3">
         <f t="shared" si="0"/>
-        <v>22782071.655387498</v>
+        <v>22806353.7014875</v>
       </c>
       <c r="AW3">
         <f t="shared" si="0"/>
-        <v>22782071.655387498</v>
+        <v>22806353.7014875</v>
       </c>
       <c r="AX3">
         <f t="shared" si="0"/>
-        <v>22782071.655387498</v>
+        <v>22806353.7014875</v>
       </c>
       <c r="AY3">
         <f t="shared" si="0"/>
-        <v>22782071.655387498</v>
+        <v>22806353.7014875</v>
       </c>
       <c r="AZ3">
         <f t="shared" si="0"/>
-        <v>30576472.853727341</v>
+        <v>30684087.897874221</v>
       </c>
       <c r="BA3">
         <f t="shared" si="0"/>
-        <v>30576472.853727341</v>
+        <v>30684087.897874221</v>
       </c>
       <c r="BB3">
         <f t="shared" si="0"/>
-        <v>30576472.853727341</v>
+        <v>30684087.897874221</v>
       </c>
       <c r="BC3">
         <f t="shared" si="0"/>
-        <v>30576472.853727341</v>
+        <v>30684087.897874221</v>
       </c>
       <c r="BD3">
         <f t="shared" si="0"/>
-        <v>30576472.853727341</v>
+        <v>30684087.897874221</v>
       </c>
       <c r="BE3">
         <f t="shared" si="0"/>
-        <v>37453847.683200002</v>
+        <v>37457920.564300008</v>
       </c>
       <c r="BF3">
         <f t="shared" si="0"/>
-        <v>37453847.683200002</v>
+        <v>37457920.564300008</v>
       </c>
       <c r="BG3">
         <f t="shared" si="0"/>
-        <v>37453847.683200002</v>
+        <v>37457920.564300008</v>
       </c>
       <c r="BH3">
         <f t="shared" si="0"/>
-        <v>37453847.683200002</v>
+        <v>37457920.564300008</v>
       </c>
       <c r="BI3">
         <f t="shared" si="0"/>
-        <v>37453847.683200002</v>
+        <v>37457920.564300008</v>
       </c>
       <c r="BJ3">
         <f t="shared" si="0"/>
-        <v>65517802.308200009</v>
+        <v>65502016.759300001</v>
       </c>
       <c r="BK3">
         <f t="shared" si="0"/>
-        <v>65517802.308200009</v>
+        <v>65502016.759300001</v>
       </c>
       <c r="BL3">
         <f t="shared" si="0"/>
-        <v>65517802.308200009</v>
+        <v>65502016.759300001</v>
       </c>
       <c r="BM3">
         <f t="shared" si="0"/>
-        <v>65517802.308200009</v>
+        <v>65502016.759300001</v>
       </c>
       <c r="BN3">
         <f t="shared" si="0"/>
-        <v>65517802.308200009</v>
+        <v>65502016.759300001</v>
       </c>
       <c r="BO3">
-        <f t="shared" ref="BO3:BS3" si="1">-2.122995457*10^(-14)*BO1^4+1.420924749*10^(-8)*BO1^3-3.200922092*10^(-3)*BO1^2+564.7181681*BO1+904999.7602</f>
-        <v>81116893.0273875</v>
+        <f t="shared" ref="BO3:BS3" si="1">-2.804699165*10^(-14)*BO1^4+1.831345456*10^(-8)*BO1^3-4.039533162*10^(-3)*BO1^2+631.0639661*BO1-761899.8207</f>
+        <v>81122435.446487501</v>
       </c>
       <c r="BP3">
         <f t="shared" si="1"/>
-        <v>81116893.0273875</v>
+        <v>81122435.446487501</v>
       </c>
       <c r="BQ3">
         <f t="shared" si="1"/>
-        <v>81116893.0273875</v>
+        <v>81122435.446487501</v>
       </c>
       <c r="BR3">
         <f t="shared" si="1"/>
-        <v>81116893.0273875</v>
+        <v>81122435.446487501</v>
       </c>
       <c r="BS3">
         <f t="shared" si="1"/>
-        <v>81116893.0273875</v>
+        <v>81122435.446487501</v>
       </c>
     </row>
     <row r="5" spans="1:71" x14ac:dyDescent="0.25">
@@ -13174,6 +13851,12 @@
       </c>
       <c r="D5">
         <v>451927</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q5">
+        <v>298763.31197724002</v>
       </c>
     </row>
     <row r="6" spans="1:71" x14ac:dyDescent="0.25">
@@ -13191,6 +13874,10 @@
         <v>9</v>
       </c>
       <c r="H6" s="3"/>
+      <c r="P6" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -13207,6 +13894,11 @@
         <v>12</v>
       </c>
       <c r="H7" s="1"/>
+      <c r="P7">
+        <f>1.243800339*10^(-7)*B1^4-9.234716656*10^(-4)*B1^3+1.575373133*B1^2+304.0855512*B1+400485.747</f>
+        <v>445736.99978779</v>
+      </c>
+      <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
@@ -13223,6 +13915,12 @@
         <v>20</v>
       </c>
       <c r="H8" s="3"/>
+      <c r="P8" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q8">
+        <v>770391.33999855013</v>
+      </c>
     </row>
     <row r="9" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -13237,6 +13935,10 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
+      <c r="P9" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
@@ -13251,6 +13953,10 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
+      <c r="P10">
+        <f>1.092857643*10^(-5)*D1^3-3.993301536*10^(-1)*D1^2+4728.083749*D1-11414432.16</f>
+        <v>-10945606.158059571</v>
+      </c>
     </row>
     <row r="11" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
@@ -13263,8 +13969,12 @@
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="P11" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q11">
+        <v>2074518.8056285714</v>
+      </c>
     </row>
     <row r="12" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -13277,8 +13987,9 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="P12" s="1" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="13" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
@@ -13291,8 +14002,10 @@
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="P13">
+        <f>-2.804699165*10^(-14)*L9^4+1.831345456*10^(-8)*L9^3-4.039533162*10^(-3)*L9^2+631.0639661*L9-761899.8207</f>
+        <v>-761899.82070000004</v>
+      </c>
     </row>
     <row r="14" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
@@ -13305,8 +14018,6 @@
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -13318,8 +14029,6 @@
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
@@ -13346,7 +14055,6 @@
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -13493,7 +14201,7 @@
         <v>6913968</v>
       </c>
     </row>
-    <row r="33" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C33">
         <v>7500</v>
       </c>
@@ -13501,7 +14209,7 @@
         <v>5846541</v>
       </c>
     </row>
-    <row r="34" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C34">
         <v>7500</v>
       </c>
@@ -13509,7 +14217,7 @@
         <v>7442729</v>
       </c>
     </row>
-    <row r="35" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C35">
         <v>10000</v>
       </c>
@@ -13517,7 +14225,7 @@
         <v>5526696</v>
       </c>
     </row>
-    <row r="36" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C36">
         <v>10000</v>
       </c>
@@ -13525,7 +14233,7 @@
         <v>6152607</v>
       </c>
     </row>
-    <row r="37" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C37">
         <v>10000</v>
       </c>
@@ -13533,7 +14241,7 @@
         <v>5257337</v>
       </c>
     </row>
-    <row r="38" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C38">
         <v>10000</v>
       </c>
@@ -13541,7 +14249,7 @@
         <v>9024658</v>
       </c>
     </row>
-    <row r="39" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C39">
         <v>10000</v>
       </c>
@@ -13549,7 +14257,7 @@
         <v>8348534</v>
       </c>
     </row>
-    <row r="40" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C40">
         <v>20000</v>
       </c>
@@ -13557,7 +14265,7 @@
         <v>10687866</v>
       </c>
     </row>
-    <row r="41" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C41">
         <v>20000</v>
       </c>
@@ -13565,7 +14273,7 @@
         <v>10852089</v>
       </c>
     </row>
-    <row r="42" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C42">
         <v>20000</v>
       </c>
@@ -13573,23 +14281,29 @@
         <v>10935028</v>
       </c>
     </row>
-    <row r="43" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C43">
         <v>20000</v>
       </c>
       <c r="D43">
         <v>10494238</v>
       </c>
-    </row>
-    <row r="44" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R43">
+        <v>784265.8</v>
+      </c>
+    </row>
+    <row r="44" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C44">
         <v>20000</v>
       </c>
       <c r="D44">
         <v>11249743</v>
       </c>
-    </row>
-    <row r="45" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R44">
+        <v>508949.2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C45">
         <v>30000</v>
       </c>
@@ -13599,8 +14313,11 @@
       <c r="P45">
         <v>509512.58199999999</v>
       </c>
-    </row>
-    <row r="46" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R45">
+        <v>796945.8</v>
+      </c>
+    </row>
+    <row r="46" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C46">
         <v>30000</v>
       </c>
@@ -13610,8 +14327,11 @@
       <c r="P46">
         <v>526420.58200000005</v>
       </c>
-    </row>
-    <row r="47" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R46">
+        <v>487563.2</v>
+      </c>
+    </row>
+    <row r="47" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C47">
         <v>30000</v>
       </c>
@@ -13621,8 +14341,11 @@
       <c r="P47">
         <v>505289.58199999999</v>
       </c>
-    </row>
-    <row r="48" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R47">
+        <v>584699.19999999995</v>
+      </c>
+    </row>
+    <row r="48" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C48">
         <v>30000</v>
       </c>
@@ -13650,8 +14373,11 @@
       <c r="P48">
         <v>432746.58199999999</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R48">
+        <v>98125.999989999997</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C49">
         <v>30000</v>
       </c>
@@ -13670,8 +14396,11 @@
       <c r="P49">
         <v>604543.58200000005</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R49">
+        <v>1522008</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C50">
         <v>50000</v>
       </c>
@@ -13690,8 +14419,11 @@
       <c r="P50">
         <v>176786.38860000001</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R50">
+        <v>719600</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C51">
         <v>50000</v>
       </c>
@@ -13710,8 +14442,11 @@
       <c r="P51">
         <v>188964.38860000001</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R51">
+        <v>347827</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C52">
         <v>50000</v>
       </c>
@@ -13730,8 +14465,11 @@
       <c r="P52">
         <v>394338.38860000001</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R52">
+        <v>1248361</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C53">
         <v>50000</v>
       </c>
@@ -13750,8 +14488,11 @@
       <c r="P53">
         <v>498857.38860000001</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R53">
+        <v>1335270.3999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C54">
         <v>50000</v>
       </c>
@@ -13770,8 +14511,11 @@
       <c r="P54">
         <v>480297.38860000001</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R54">
+        <v>709359.4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C55">
         <v>75000</v>
       </c>
@@ -13790,8 +14534,11 @@
       <c r="P55">
         <v>435983.19429999997</v>
       </c>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R55">
+        <v>1604629.4</v>
+      </c>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C56">
         <v>75000</v>
       </c>
@@ -13810,8 +14557,11 @@
       <c r="P56">
         <v>281493.19429999997</v>
       </c>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R56">
+        <v>2162691.6</v>
+      </c>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C57">
         <v>75000</v>
       </c>
@@ -13830,8 +14580,11 @@
       <c r="P57">
         <v>463009.19429999997</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R57">
+        <v>1486567.6</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C58">
         <v>75000</v>
       </c>
@@ -13850,8 +14603,11 @@
       <c r="P58">
         <v>385716.19429999997</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R58">
+        <v>155926.79999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C59">
         <v>75000</v>
       </c>
@@ -13870,8 +14626,11 @@
       <c r="P59">
         <v>1637809.8060000001</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R59">
+        <v>8296.1999909999995</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C60">
         <v>100000</v>
       </c>
@@ -13890,8 +14649,11 @@
       <c r="P60">
         <v>64043.742359999997</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R60">
+        <v>91235.199989999994</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C61">
         <v>100000</v>
       </c>
@@ -13910,8 +14672,11 @@
       <c r="P61">
         <v>162655.74239999999</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R61">
+        <v>349554.8</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C62">
         <v>100000</v>
       </c>
@@ -13930,8 +14695,11 @@
       <c r="P62">
         <v>143712.74239999999</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R62">
+        <v>405950.2</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C63">
         <v>100000</v>
       </c>
@@ -13950,8 +14718,12 @@
       <c r="P63">
         <v>121834.7424</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R63">
+        <f>AVERAGE(R43:R62)</f>
+        <v>770391.33999855013</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C64">
         <v>100000</v>
       </c>
@@ -14703,7 +15475,7 @@
         <v>616441.04059999995</v>
       </c>
     </row>
-    <row r="113" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:18" x14ac:dyDescent="0.25">
       <c r="H113" t="s">
         <v>168</v>
       </c>
@@ -14717,7 +15489,7 @@
         <v>5452539.0410000002</v>
       </c>
     </row>
-    <row r="114" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:18" x14ac:dyDescent="0.25">
       <c r="H114" t="s">
         <v>170</v>
       </c>
@@ -14731,7 +15503,7 @@
         <v>5523338.9589999998</v>
       </c>
     </row>
-    <row r="115" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:18" x14ac:dyDescent="0.25">
       <c r="H115" t="s">
         <v>173</v>
       </c>
@@ -14746,7 +15518,7 @@
         <v>1378252.2723040001</v>
       </c>
     </row>
-    <row r="116" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:18" x14ac:dyDescent="0.25">
       <c r="H116" t="s">
         <v>175</v>
       </c>
@@ -14757,7 +15529,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="117" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:18" x14ac:dyDescent="0.25">
       <c r="H117" t="s">
         <v>177</v>
       </c>
@@ -14768,7 +15540,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="118" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:18" x14ac:dyDescent="0.25">
       <c r="H118" t="s">
         <v>179</v>
       </c>
@@ -14779,9 +15551,1176 @@
         <v>180</v>
       </c>
     </row>
-    <row r="121" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:18" x14ac:dyDescent="0.25">
       <c r="H121" t="s">
         <v>181</v>
+      </c>
+    </row>
+    <row r="124" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="R124">
+        <v>784265.8</v>
+      </c>
+    </row>
+    <row r="125" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>480</v>
+      </c>
+      <c r="R125">
+        <v>508949.2</v>
+      </c>
+    </row>
+    <row r="126" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="R126">
+        <v>796945.8</v>
+      </c>
+    </row>
+    <row r="127" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="R127">
+        <v>487563.2</v>
+      </c>
+    </row>
+    <row r="128" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="R128">
+        <v>584699.19999999995</v>
+      </c>
+    </row>
+    <row r="129" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="E129" t="s">
+        <v>22</v>
+      </c>
+      <c r="F129" t="s">
+        <v>23</v>
+      </c>
+      <c r="G129" t="s">
+        <v>24</v>
+      </c>
+      <c r="H129" t="s">
+        <v>25</v>
+      </c>
+      <c r="I129" t="s">
+        <v>24</v>
+      </c>
+      <c r="J129" t="s">
+        <v>26</v>
+      </c>
+      <c r="R129">
+        <v>98125.999989999997</v>
+      </c>
+    </row>
+    <row r="130" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D130" t="s">
+        <v>27</v>
+      </c>
+      <c r="H130" t="s">
+        <v>472</v>
+      </c>
+      <c r="J130" t="s">
+        <v>481</v>
+      </c>
+      <c r="R130">
+        <v>1522008</v>
+      </c>
+    </row>
+    <row r="131" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
+        <v>30</v>
+      </c>
+      <c r="H131" t="s">
+        <v>472</v>
+      </c>
+      <c r="J131" t="s">
+        <v>482</v>
+      </c>
+      <c r="R131">
+        <v>719600</v>
+      </c>
+    </row>
+    <row r="132" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
+        <v>32</v>
+      </c>
+      <c r="H132" t="s">
+        <v>472</v>
+      </c>
+      <c r="J132" t="s">
+        <v>483</v>
+      </c>
+      <c r="R132">
+        <v>347827</v>
+      </c>
+    </row>
+    <row r="133" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D133" t="s">
+        <v>34</v>
+      </c>
+      <c r="H133" t="s">
+        <v>472</v>
+      </c>
+      <c r="J133" t="s">
+        <v>484</v>
+      </c>
+      <c r="R133">
+        <v>1248361</v>
+      </c>
+    </row>
+    <row r="134" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D134" t="s">
+        <v>36</v>
+      </c>
+      <c r="H134" t="s">
+        <v>472</v>
+      </c>
+      <c r="J134" t="s">
+        <v>485</v>
+      </c>
+      <c r="R134">
+        <v>1335270.3999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D135" t="s">
+        <v>38</v>
+      </c>
+      <c r="H135" t="s">
+        <v>486</v>
+      </c>
+      <c r="J135" t="s">
+        <v>487</v>
+      </c>
+      <c r="R135">
+        <v>709359.4</v>
+      </c>
+    </row>
+    <row r="136" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D136" t="s">
+        <v>41</v>
+      </c>
+      <c r="H136" t="s">
+        <v>486</v>
+      </c>
+      <c r="J136" t="s">
+        <v>488</v>
+      </c>
+      <c r="R136">
+        <v>1604629.4</v>
+      </c>
+    </row>
+    <row r="137" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D137" t="s">
+        <v>43</v>
+      </c>
+      <c r="H137" t="s">
+        <v>486</v>
+      </c>
+      <c r="J137" t="s">
+        <v>489</v>
+      </c>
+      <c r="R137">
+        <v>2162691.6</v>
+      </c>
+    </row>
+    <row r="138" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D138" t="s">
+        <v>45</v>
+      </c>
+      <c r="H138" t="s">
+        <v>486</v>
+      </c>
+      <c r="J138" t="s">
+        <v>490</v>
+      </c>
+      <c r="R138">
+        <v>1486567.6</v>
+      </c>
+    </row>
+    <row r="139" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D139" t="s">
+        <v>47</v>
+      </c>
+      <c r="H139" t="s">
+        <v>486</v>
+      </c>
+      <c r="J139" t="s">
+        <v>491</v>
+      </c>
+      <c r="R139">
+        <v>155926.79999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D140" t="s">
+        <v>49</v>
+      </c>
+      <c r="H140" t="s">
+        <v>492</v>
+      </c>
+      <c r="J140" t="s">
+        <v>493</v>
+      </c>
+      <c r="R140">
+        <v>8296.1999909999995</v>
+      </c>
+    </row>
+    <row r="141" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D141" t="s">
+        <v>52</v>
+      </c>
+      <c r="H141" t="s">
+        <v>492</v>
+      </c>
+      <c r="J141" t="s">
+        <v>494</v>
+      </c>
+      <c r="R141">
+        <v>91235.199989999994</v>
+      </c>
+    </row>
+    <row r="142" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D142" t="s">
+        <v>54</v>
+      </c>
+      <c r="H142" t="s">
+        <v>492</v>
+      </c>
+      <c r="J142" t="s">
+        <v>495</v>
+      </c>
+      <c r="R142">
+        <v>349554.8</v>
+      </c>
+    </row>
+    <row r="143" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D143" t="s">
+        <v>56</v>
+      </c>
+      <c r="H143" t="s">
+        <v>492</v>
+      </c>
+      <c r="J143" t="s">
+        <v>496</v>
+      </c>
+      <c r="K143" t="s">
+        <v>24</v>
+      </c>
+      <c r="L143" t="s">
+        <v>26</v>
+      </c>
+      <c r="O143">
+        <v>6190.0001709999997</v>
+      </c>
+      <c r="R143">
+        <v>405950.2</v>
+      </c>
+    </row>
+    <row r="144" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D144" t="s">
+        <v>58</v>
+      </c>
+      <c r="H144" t="s">
+        <v>492</v>
+      </c>
+      <c r="J144" t="s">
+        <v>497</v>
+      </c>
+      <c r="K144" t="s">
+        <v>448</v>
+      </c>
+      <c r="M144" t="s">
+        <v>449</v>
+      </c>
+      <c r="O144">
+        <v>10717.999830000001</v>
+      </c>
+      <c r="R144">
+        <f>AVERAGE(R124:R143)</f>
+        <v>770391.33999855013</v>
+      </c>
+    </row>
+    <row r="145" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D145" t="s">
+        <v>60</v>
+      </c>
+      <c r="H145" t="s">
+        <v>498</v>
+      </c>
+      <c r="J145" t="s">
+        <v>499</v>
+      </c>
+      <c r="K145" t="s">
+        <v>448</v>
+      </c>
+      <c r="M145" t="s">
+        <v>450</v>
+      </c>
+      <c r="O145">
+        <v>10413.000169999999</v>
+      </c>
+    </row>
+    <row r="146" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
+        <v>63</v>
+      </c>
+      <c r="H146" t="s">
+        <v>498</v>
+      </c>
+      <c r="J146" t="s">
+        <v>500</v>
+      </c>
+      <c r="K146" t="s">
+        <v>448</v>
+      </c>
+      <c r="M146" t="s">
+        <v>451</v>
+      </c>
+      <c r="O146">
+        <v>82956.000169999999</v>
+      </c>
+    </row>
+    <row r="147" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D147" t="s">
+        <v>65</v>
+      </c>
+      <c r="H147" t="s">
+        <v>498</v>
+      </c>
+      <c r="J147" t="s">
+        <v>501</v>
+      </c>
+      <c r="K147" t="s">
+        <v>448</v>
+      </c>
+      <c r="M147" t="s">
+        <v>452</v>
+      </c>
+      <c r="O147">
+        <v>88840.999830000001</v>
+      </c>
+    </row>
+    <row r="148" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D148" t="s">
+        <v>67</v>
+      </c>
+      <c r="H148" t="s">
+        <v>498</v>
+      </c>
+      <c r="J148" t="s">
+        <v>502</v>
+      </c>
+      <c r="K148" t="s">
+        <v>448</v>
+      </c>
+      <c r="M148" t="s">
+        <v>453</v>
+      </c>
+      <c r="O148">
+        <v>171062.4001</v>
+      </c>
+    </row>
+    <row r="149" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="H149" t="s">
+        <v>498</v>
+      </c>
+      <c r="J149" t="s">
+        <v>503</v>
+      </c>
+      <c r="K149" t="s">
+        <v>454</v>
+      </c>
+      <c r="M149" t="s">
+        <v>455</v>
+      </c>
+      <c r="O149">
+        <v>158884.4001</v>
+      </c>
+    </row>
+    <row r="150" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="K150" t="s">
+        <v>454</v>
+      </c>
+      <c r="M150" t="s">
+        <v>456</v>
+      </c>
+      <c r="O150">
+        <v>46489.599920000001</v>
+      </c>
+    </row>
+    <row r="151" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="K151" t="s">
+        <v>454</v>
+      </c>
+      <c r="M151" t="s">
+        <v>457</v>
+      </c>
+      <c r="O151">
+        <v>151008.5999</v>
+      </c>
+    </row>
+    <row r="152" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D152" t="s">
+        <v>504</v>
+      </c>
+      <c r="K152" t="s">
+        <v>454</v>
+      </c>
+      <c r="M152" t="s">
+        <v>458</v>
+      </c>
+      <c r="O152">
+        <v>132448.5999</v>
+      </c>
+    </row>
+    <row r="153" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="F153" t="s">
+        <v>47</v>
+      </c>
+      <c r="K153" t="s">
+        <v>454</v>
+      </c>
+      <c r="M153" t="s">
+        <v>459</v>
+      </c>
+      <c r="O153">
+        <v>450304.79989999998</v>
+      </c>
+    </row>
+    <row r="154" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="F154" t="s">
+        <v>49</v>
+      </c>
+      <c r="K154" t="s">
+        <v>460</v>
+      </c>
+      <c r="M154" t="s">
+        <v>461</v>
+      </c>
+      <c r="O154">
+        <v>295814.79989999998</v>
+      </c>
+    </row>
+    <row r="155" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="F155" t="s">
+        <v>52</v>
+      </c>
+      <c r="K155" t="s">
+        <v>460</v>
+      </c>
+      <c r="M155" t="s">
+        <v>462</v>
+      </c>
+      <c r="O155">
+        <v>477330.79989999998</v>
+      </c>
+    </row>
+    <row r="156" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="F156" t="s">
+        <v>54</v>
+      </c>
+      <c r="K156" t="s">
+        <v>460</v>
+      </c>
+      <c r="M156" t="s">
+        <v>463</v>
+      </c>
+      <c r="O156">
+        <v>400037.79989999998</v>
+      </c>
+    </row>
+    <row r="157" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="F157" t="s">
+        <v>56</v>
+      </c>
+      <c r="K157" t="s">
+        <v>460</v>
+      </c>
+      <c r="M157" t="s">
+        <v>464</v>
+      </c>
+      <c r="O157">
+        <v>1623488.2</v>
+      </c>
+    </row>
+    <row r="158" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="F158" t="s">
+        <v>58</v>
+      </c>
+      <c r="K158" t="s">
+        <v>460</v>
+      </c>
+      <c r="M158" t="s">
+        <v>465</v>
+      </c>
+      <c r="O158">
+        <v>45245.399960000002</v>
+      </c>
+    </row>
+    <row r="159" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="F159" t="s">
+        <v>60</v>
+      </c>
+      <c r="K159" t="s">
+        <v>466</v>
+      </c>
+      <c r="M159" t="s">
+        <v>467</v>
+      </c>
+      <c r="O159">
+        <v>53366.600039999998</v>
+      </c>
+    </row>
+    <row r="160" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="F160" t="s">
+        <v>63</v>
+      </c>
+      <c r="K160" t="s">
+        <v>466</v>
+      </c>
+      <c r="M160" t="s">
+        <v>468</v>
+      </c>
+      <c r="O160">
+        <v>34423.600039999998</v>
+      </c>
+    </row>
+    <row r="161" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F161" t="s">
+        <v>65</v>
+      </c>
+      <c r="K161" t="s">
+        <v>466</v>
+      </c>
+      <c r="M161" t="s">
+        <v>469</v>
+      </c>
+      <c r="O161">
+        <v>12545.600039999999</v>
+      </c>
+    </row>
+    <row r="162" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F162" t="s">
+        <v>67</v>
+      </c>
+      <c r="K162" t="s">
+        <v>466</v>
+      </c>
+      <c r="M162" t="s">
+        <v>470</v>
+      </c>
+      <c r="O162">
+        <v>55090.399960000002</v>
+      </c>
+    </row>
+    <row r="163" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F163" t="s">
+        <v>69</v>
+      </c>
+      <c r="K163" t="s">
+        <v>466</v>
+      </c>
+      <c r="M163" t="s">
+        <v>471</v>
+      </c>
+      <c r="O163">
+        <v>784265.8003</v>
+      </c>
+    </row>
+    <row r="164" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F164" t="s">
+        <v>71</v>
+      </c>
+      <c r="K164" t="s">
+        <v>472</v>
+      </c>
+      <c r="M164" t="s">
+        <v>473</v>
+      </c>
+      <c r="O164">
+        <v>508949.1997</v>
+      </c>
+    </row>
+    <row r="165" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F165" t="s">
+        <v>74</v>
+      </c>
+      <c r="K165" t="s">
+        <v>472</v>
+      </c>
+      <c r="M165" t="s">
+        <v>474</v>
+      </c>
+      <c r="O165">
+        <v>796945.8003</v>
+      </c>
+    </row>
+    <row r="166" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F166" t="s">
+        <v>76</v>
+      </c>
+      <c r="K166" t="s">
+        <v>472</v>
+      </c>
+      <c r="M166" t="s">
+        <v>475</v>
+      </c>
+      <c r="O166">
+        <v>487563.1997</v>
+      </c>
+    </row>
+    <row r="167" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F167" t="s">
+        <v>78</v>
+      </c>
+      <c r="K167" t="s">
+        <v>472</v>
+      </c>
+      <c r="M167" t="s">
+        <v>476</v>
+      </c>
+      <c r="O167">
+        <v>584699.1997</v>
+      </c>
+    </row>
+    <row r="168" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F168" t="s">
+        <v>80</v>
+      </c>
+      <c r="K168" t="s">
+        <v>472</v>
+      </c>
+      <c r="M168" t="s">
+        <v>477</v>
+      </c>
+      <c r="O168">
+        <f>AVERAGE(O143:O167)</f>
+        <v>298763.31197724002</v>
+      </c>
+    </row>
+    <row r="171" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="F171" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="176" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E176" t="s">
+        <v>22</v>
+      </c>
+      <c r="F176" t="s">
+        <v>23</v>
+      </c>
+      <c r="G176" t="s">
+        <v>24</v>
+      </c>
+      <c r="I176" t="s">
+        <v>25</v>
+      </c>
+      <c r="J176" t="s">
+        <v>24</v>
+      </c>
+      <c r="K176" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="177" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E177" t="s">
+        <v>27</v>
+      </c>
+      <c r="J177" t="s">
+        <v>505</v>
+      </c>
+      <c r="L177" t="s">
+        <v>506</v>
+      </c>
+      <c r="N177">
+        <v>302279.64500000002</v>
+      </c>
+    </row>
+    <row r="178" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E178" t="s">
+        <v>30</v>
+      </c>
+      <c r="J178" t="s">
+        <v>505</v>
+      </c>
+      <c r="L178" t="s">
+        <v>507</v>
+      </c>
+      <c r="N178">
+        <v>466502.64500000002</v>
+      </c>
+    </row>
+    <row r="179" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E179" t="s">
+        <v>32</v>
+      </c>
+      <c r="J179" t="s">
+        <v>505</v>
+      </c>
+      <c r="L179" t="s">
+        <v>508</v>
+      </c>
+      <c r="N179">
+        <v>549441.64500000002</v>
+      </c>
+    </row>
+    <row r="180" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E180" t="s">
+        <v>34</v>
+      </c>
+      <c r="J180" t="s">
+        <v>505</v>
+      </c>
+      <c r="L180" t="s">
+        <v>509</v>
+      </c>
+      <c r="N180">
+        <v>108651.645</v>
+      </c>
+    </row>
+    <row r="181" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E181" t="s">
+        <v>36</v>
+      </c>
+      <c r="J181" t="s">
+        <v>505</v>
+      </c>
+      <c r="L181" t="s">
+        <v>510</v>
+      </c>
+      <c r="N181">
+        <v>864156.64500000002</v>
+      </c>
+    </row>
+    <row r="182" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E182" t="s">
+        <v>38</v>
+      </c>
+      <c r="J182" t="s">
+        <v>511</v>
+      </c>
+      <c r="L182" t="s">
+        <v>512</v>
+      </c>
+      <c r="N182">
+        <v>1615928.527</v>
+      </c>
+    </row>
+    <row r="183" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E183" t="s">
+        <v>41</v>
+      </c>
+      <c r="J183" t="s">
+        <v>511</v>
+      </c>
+      <c r="L183" t="s">
+        <v>513</v>
+      </c>
+      <c r="N183">
+        <v>644532.47259999998</v>
+      </c>
+    </row>
+    <row r="184" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E184" t="s">
+        <v>43</v>
+      </c>
+      <c r="J184" t="s">
+        <v>511</v>
+      </c>
+      <c r="L184" t="s">
+        <v>514</v>
+      </c>
+      <c r="N184">
+        <v>1611286.527</v>
+      </c>
+    </row>
+    <row r="185" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E185" t="s">
+        <v>45</v>
+      </c>
+      <c r="J185" t="s">
+        <v>511</v>
+      </c>
+      <c r="L185" t="s">
+        <v>515</v>
+      </c>
+      <c r="N185">
+        <v>2270345.5269999998</v>
+      </c>
+    </row>
+    <row r="186" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E186" t="s">
+        <v>47</v>
+      </c>
+      <c r="J186" t="s">
+        <v>511</v>
+      </c>
+      <c r="L186" t="s">
+        <v>516</v>
+      </c>
+      <c r="N186">
+        <v>417952.47259999998</v>
+      </c>
+    </row>
+    <row r="187" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E187" t="s">
+        <v>49</v>
+      </c>
+      <c r="J187" t="s">
+        <v>517</v>
+      </c>
+      <c r="L187" t="s">
+        <v>518</v>
+      </c>
+      <c r="N187">
+        <v>4027167.2969999998</v>
+      </c>
+    </row>
+    <row r="188" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E188" t="s">
+        <v>52</v>
+      </c>
+      <c r="J188" t="s">
+        <v>517</v>
+      </c>
+      <c r="L188" t="s">
+        <v>519</v>
+      </c>
+      <c r="N188">
+        <v>1250984.703</v>
+      </c>
+    </row>
+    <row r="189" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E189" t="s">
+        <v>54</v>
+      </c>
+      <c r="J189" t="s">
+        <v>517</v>
+      </c>
+      <c r="L189" t="s">
+        <v>520</v>
+      </c>
+      <c r="N189">
+        <v>2244148.2969999998</v>
+      </c>
+    </row>
+    <row r="190" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E190" t="s">
+        <v>56</v>
+      </c>
+      <c r="J190" t="s">
+        <v>517</v>
+      </c>
+      <c r="L190" t="s">
+        <v>521</v>
+      </c>
+      <c r="N190">
+        <v>715456.70259999996</v>
+      </c>
+    </row>
+    <row r="191" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E191" t="s">
+        <v>58</v>
+      </c>
+      <c r="J191" t="s">
+        <v>517</v>
+      </c>
+      <c r="L191" t="s">
+        <v>522</v>
+      </c>
+      <c r="N191">
+        <v>1500558.703</v>
+      </c>
+    </row>
+    <row r="192" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E192" t="s">
+        <v>60</v>
+      </c>
+      <c r="J192" t="s">
+        <v>523</v>
+      </c>
+      <c r="L192" t="s">
+        <v>524</v>
+      </c>
+      <c r="N192">
+        <v>1117624.898</v>
+      </c>
+    </row>
+    <row r="193" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E193" t="s">
+        <v>63</v>
+      </c>
+      <c r="J193" t="s">
+        <v>523</v>
+      </c>
+      <c r="L193" t="s">
+        <v>525</v>
+      </c>
+      <c r="N193">
+        <v>1570562.102</v>
+      </c>
+    </row>
+    <row r="194" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E194" t="s">
+        <v>65</v>
+      </c>
+      <c r="J194" t="s">
+        <v>523</v>
+      </c>
+      <c r="L194" t="s">
+        <v>526</v>
+      </c>
+      <c r="N194">
+        <v>2581780.898</v>
+      </c>
+    </row>
+    <row r="195" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E195" t="s">
+        <v>67</v>
+      </c>
+      <c r="J195" t="s">
+        <v>523</v>
+      </c>
+      <c r="L195" t="s">
+        <v>527</v>
+      </c>
+      <c r="N195">
+        <v>1678526.898</v>
+      </c>
+    </row>
+    <row r="196" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E196" t="s">
+        <v>69</v>
+      </c>
+      <c r="J196" t="s">
+        <v>523</v>
+      </c>
+      <c r="L196" t="s">
+        <v>528</v>
+      </c>
+      <c r="N196">
+        <v>3472113.102</v>
+      </c>
+    </row>
+    <row r="197" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E197" t="s">
+        <v>71</v>
+      </c>
+      <c r="J197" t="s">
+        <v>529</v>
+      </c>
+      <c r="L197" t="s">
+        <v>530</v>
+      </c>
+      <c r="N197">
+        <v>210027.56349999999</v>
+      </c>
+    </row>
+    <row r="198" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E198" t="s">
+        <v>74</v>
+      </c>
+      <c r="J198" t="s">
+        <v>529</v>
+      </c>
+      <c r="L198" t="s">
+        <v>531</v>
+      </c>
+      <c r="N198">
+        <v>140826.56349999999</v>
+      </c>
+    </row>
+    <row r="199" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E199" t="s">
+        <v>76</v>
+      </c>
+      <c r="J199" t="s">
+        <v>529</v>
+      </c>
+      <c r="L199" t="s">
+        <v>532</v>
+      </c>
+      <c r="N199">
+        <v>2149683.4360000002</v>
+      </c>
+    </row>
+    <row r="200" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E200" t="s">
+        <v>78</v>
+      </c>
+      <c r="J200" t="s">
+        <v>529</v>
+      </c>
+      <c r="L200" t="s">
+        <v>533</v>
+      </c>
+      <c r="N200">
+        <v>655240.56350000005</v>
+      </c>
+    </row>
+    <row r="201" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E201" t="s">
+        <v>80</v>
+      </c>
+      <c r="J201" t="s">
+        <v>529</v>
+      </c>
+      <c r="L201" t="s">
+        <v>534</v>
+      </c>
+      <c r="N201">
+        <v>1528429.564</v>
+      </c>
+    </row>
+    <row r="202" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E202" t="s">
+        <v>82</v>
+      </c>
+      <c r="J202" t="s">
+        <v>535</v>
+      </c>
+      <c r="L202" t="s">
+        <v>536</v>
+      </c>
+      <c r="N202">
+        <v>1744108.7420000001</v>
+      </c>
+    </row>
+    <row r="203" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E203" t="s">
+        <v>85</v>
+      </c>
+      <c r="J203" t="s">
+        <v>535</v>
+      </c>
+      <c r="L203" t="s">
+        <v>537</v>
+      </c>
+      <c r="N203">
+        <v>6707881.2580000004</v>
+      </c>
+    </row>
+    <row r="204" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E204" t="s">
+        <v>87</v>
+      </c>
+      <c r="J204" t="s">
+        <v>535</v>
+      </c>
+      <c r="L204" t="s">
+        <v>538</v>
+      </c>
+      <c r="N204">
+        <v>5951874.7419999996</v>
+      </c>
+    </row>
+    <row r="205" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E205" t="s">
+        <v>89</v>
+      </c>
+      <c r="J205" t="s">
+        <v>535</v>
+      </c>
+      <c r="L205" t="s">
+        <v>539</v>
+      </c>
+      <c r="N205">
+        <v>2540656.7420000001</v>
+      </c>
+    </row>
+    <row r="206" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E206" t="s">
+        <v>91</v>
+      </c>
+      <c r="J206" t="s">
+        <v>535</v>
+      </c>
+      <c r="L206" t="s">
+        <v>540</v>
+      </c>
+      <c r="N206">
+        <v>3615005.2579999999</v>
+      </c>
+    </row>
+    <row r="207" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E207" t="s">
+        <v>93</v>
+      </c>
+      <c r="J207" t="s">
+        <v>541</v>
+      </c>
+      <c r="L207" t="s">
+        <v>542</v>
+      </c>
+      <c r="N207">
+        <v>3110356.4130000002</v>
+      </c>
+    </row>
+    <row r="208" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E208" t="s">
+        <v>96</v>
+      </c>
+      <c r="J208" t="s">
+        <v>541</v>
+      </c>
+      <c r="L208" t="s">
+        <v>543</v>
+      </c>
+      <c r="N208">
+        <v>3646204.5869999998</v>
+      </c>
+    </row>
+    <row r="209" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E209" t="s">
+        <v>98</v>
+      </c>
+      <c r="J209" t="s">
+        <v>541</v>
+      </c>
+      <c r="L209" t="s">
+        <v>544</v>
+      </c>
+      <c r="N209">
+        <v>621983.41269999999</v>
+      </c>
+    </row>
+    <row r="210" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E210" t="s">
+        <v>100</v>
+      </c>
+      <c r="J210" t="s">
+        <v>541</v>
+      </c>
+      <c r="L210" t="s">
+        <v>545</v>
+      </c>
+      <c r="N210">
+        <v>5458081.4129999997</v>
+      </c>
+    </row>
+    <row r="211" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E211" t="s">
+        <v>102</v>
+      </c>
+      <c r="J211" t="s">
+        <v>541</v>
+      </c>
+      <c r="L211" t="s">
+        <v>546</v>
+      </c>
+      <c r="N211">
+        <v>5517796.5870000003</v>
+      </c>
+    </row>
+    <row r="212" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="N212">
+        <f>AVERAGE(N177:N211)</f>
+        <v>2074518.8056285714</v>
+      </c>
+    </row>
+    <row r="214" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E214" t="s">
+        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -17126,7 +19065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6205006E-A83F-4DCA-8D75-5850F7078197}">
   <dimension ref="A1:BS91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>

--- a/FUNKCE/graphs/ALL-LIKEE-10-2048.xlsx
+++ b/FUNKCE/graphs/ALL-LIKEE-10-2048.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="580">
   <si>
     <t>seq</t>
   </si>
@@ -2194,126 +2194,6 @@
     <t>20-250k</t>
   </si>
   <si>
-    <r>
-      <t>y = 1.243800339·10</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>-7</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t> x</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t> - 9.234716656·10</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>-4</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t> x</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t> + 1.575373133 x</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t> + 304.0855512 x + 400485.747</t>
-    </r>
-  </si>
-  <si>
     <t> 445736.9998 </t>
   </si>
   <si>
@@ -2860,6 +2740,161 @@
       </rPr>
       <t> + 631.0639661 x - 761899.8207</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>y = -5.637501865·10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> + 917.2501529 x + 420823.9099</t>
+    </r>
+  </si>
+  <si>
+    <t> 511985.175 </t>
+  </si>
+  <si>
+    <t> 60058.17503 </t>
+  </si>
+  <si>
+    <t> 76966.17503 </t>
+  </si>
+  <si>
+    <t> 55835.17503 </t>
+  </si>
+  <si>
+    <t> 16707.82497 </t>
+  </si>
+  <si>
+    <t> 155089.175 </t>
+  </si>
+  <si>
+    <t> 865355.2317 </t>
+  </si>
+  <si>
+    <t> 144418.7683 </t>
+  </si>
+  <si>
+    <t> 132240.7683 </t>
+  </si>
+  <si>
+    <t> 73133.23169 </t>
+  </si>
+  <si>
+    <t> 177652.2317 </t>
+  </si>
+  <si>
+    <t> 159092.2317 </t>
+  </si>
+  <si>
+    <t> 1281699.044 </t>
+  </si>
+  <si>
+    <t> 251151.0441 </t>
+  </si>
+  <si>
+    <t> 96661.04414 </t>
+  </si>
+  <si>
+    <t> 278177.0441 </t>
+  </si>
+  <si>
+    <t> 200884.0441 </t>
+  </si>
+  <si>
+    <t> 1822641.956 </t>
+  </si>
+  <si>
+    <t> 2029824.141 </t>
+  </si>
+  <si>
+    <t> 72122.14106 </t>
+  </si>
+  <si>
+    <t> 170734.1411 </t>
+  </si>
+  <si>
+    <t> 151791.1411 </t>
+  </si>
+  <si>
+    <t> 129913.1411 </t>
+  </si>
+  <si>
+    <t> 62277.14106 </t>
+  </si>
+  <si>
+    <t> 3597699.208 </t>
+  </si>
+  <si>
+    <t> 773160.2081 </t>
+  </si>
+  <si>
+    <t> 520054.7919 </t>
+  </si>
+  <si>
+    <t> 785840.2081 </t>
+  </si>
+  <si>
+    <t> 498668.7919 </t>
+  </si>
+  <si>
+    <t> 595804.7919 </t>
+  </si>
+  <si>
+    <t>Result:  y = -5.637501865·1</t>
   </si>
 </sst>
 </file>
@@ -13130,8 +13165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3651AC46-1954-4371-85B6-F873200F4A01}">
   <dimension ref="A1:BS214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AB17" sqref="AB17"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13856,7 +13891,7 @@
         <v>444</v>
       </c>
       <c r="Q5">
-        <v>298763.31197724002</v>
+        <v>298443.01546040003</v>
       </c>
     </row>
     <row r="6" spans="1:71" x14ac:dyDescent="0.25">
@@ -13874,8 +13909,8 @@
         <v>9</v>
       </c>
       <c r="H6" s="3"/>
-      <c r="P6" s="1" t="s">
-        <v>447</v>
+      <c r="P6" s="2" t="s">
+        <v>548</v>
       </c>
       <c r="Q6" s="3"/>
     </row>
@@ -13936,7 +13971,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="P9" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="Q9" s="3"/>
     </row>
@@ -13988,7 +14023,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="P12" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="13" spans="1:71" x14ac:dyDescent="0.25">
@@ -14201,7 +14236,7 @@
         <v>6913968</v>
       </c>
     </row>
-    <row r="33" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C33">
         <v>7500</v>
       </c>
@@ -14209,7 +14244,7 @@
         <v>5846541</v>
       </c>
     </row>
-    <row r="34" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C34">
         <v>7500</v>
       </c>
@@ -14217,7 +14252,7 @@
         <v>7442729</v>
       </c>
     </row>
-    <row r="35" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C35">
         <v>10000</v>
       </c>
@@ -14225,7 +14260,7 @@
         <v>5526696</v>
       </c>
     </row>
-    <row r="36" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C36">
         <v>10000</v>
       </c>
@@ -14233,7 +14268,7 @@
         <v>6152607</v>
       </c>
     </row>
-    <row r="37" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C37">
         <v>10000</v>
       </c>
@@ -14241,7 +14276,7 @@
         <v>5257337</v>
       </c>
     </row>
-    <row r="38" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C38">
         <v>10000</v>
       </c>
@@ -14249,7 +14284,7 @@
         <v>9024658</v>
       </c>
     </row>
-    <row r="39" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C39">
         <v>10000</v>
       </c>
@@ -14257,7 +14292,7 @@
         <v>8348534</v>
       </c>
     </row>
-    <row r="40" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C40">
         <v>20000</v>
       </c>
@@ -14265,7 +14300,7 @@
         <v>10687866</v>
       </c>
     </row>
-    <row r="41" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C41">
         <v>20000</v>
       </c>
@@ -14273,7 +14308,7 @@
         <v>10852089</v>
       </c>
     </row>
-    <row r="42" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C42">
         <v>20000</v>
       </c>
@@ -14281,7 +14316,7 @@
         <v>10935028</v>
       </c>
     </row>
-    <row r="43" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C43">
         <v>20000</v>
       </c>
@@ -14292,7 +14327,7 @@
         <v>784265.8</v>
       </c>
     </row>
-    <row r="44" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C44">
         <v>20000</v>
       </c>
@@ -14303,7 +14338,7 @@
         <v>508949.2</v>
       </c>
     </row>
-    <row r="45" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C45">
         <v>30000</v>
       </c>
@@ -14317,7 +14352,7 @@
         <v>796945.8</v>
       </c>
     </row>
-    <row r="46" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C46">
         <v>30000</v>
       </c>
@@ -14330,8 +14365,83 @@
       <c r="R46">
         <v>487563.2</v>
       </c>
-    </row>
-    <row r="47" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="V46">
+        <v>100</v>
+      </c>
+      <c r="W46">
+        <v>100</v>
+      </c>
+      <c r="X46">
+        <v>100</v>
+      </c>
+      <c r="Y46">
+        <v>100</v>
+      </c>
+      <c r="Z46">
+        <v>100</v>
+      </c>
+      <c r="AA46">
+        <v>500</v>
+      </c>
+      <c r="AB46">
+        <v>500</v>
+      </c>
+      <c r="AC46">
+        <v>500</v>
+      </c>
+      <c r="AD46">
+        <v>500</v>
+      </c>
+      <c r="AE46">
+        <v>500</v>
+      </c>
+      <c r="AF46">
+        <v>1000</v>
+      </c>
+      <c r="AG46">
+        <v>1000</v>
+      </c>
+      <c r="AH46">
+        <v>1000</v>
+      </c>
+      <c r="AI46">
+        <v>1000</v>
+      </c>
+      <c r="AJ46">
+        <v>1000</v>
+      </c>
+      <c r="AK46">
+        <v>2000</v>
+      </c>
+      <c r="AL46">
+        <v>2000</v>
+      </c>
+      <c r="AM46">
+        <v>2000</v>
+      </c>
+      <c r="AN46">
+        <v>2000</v>
+      </c>
+      <c r="AO46">
+        <v>2000</v>
+      </c>
+      <c r="AP46">
+        <v>5000</v>
+      </c>
+      <c r="AQ46">
+        <v>5000</v>
+      </c>
+      <c r="AR46">
+        <v>5000</v>
+      </c>
+      <c r="AS46">
+        <v>5000</v>
+      </c>
+      <c r="AT46">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="47" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C47">
         <v>30000</v>
       </c>
@@ -14344,8 +14454,83 @@
       <c r="R47">
         <v>584699.19999999995</v>
       </c>
-    </row>
-    <row r="48" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="V47">
+        <v>451927</v>
+      </c>
+      <c r="W47">
+        <v>435019</v>
+      </c>
+      <c r="X47">
+        <v>456150</v>
+      </c>
+      <c r="Y47">
+        <v>528693</v>
+      </c>
+      <c r="Z47">
+        <v>356896</v>
+      </c>
+      <c r="AA47">
+        <v>1009774</v>
+      </c>
+      <c r="AB47">
+        <v>997596</v>
+      </c>
+      <c r="AC47">
+        <v>792222</v>
+      </c>
+      <c r="AD47">
+        <v>687703</v>
+      </c>
+      <c r="AE47">
+        <v>706263</v>
+      </c>
+      <c r="AF47">
+        <v>1030548</v>
+      </c>
+      <c r="AG47">
+        <v>1185038</v>
+      </c>
+      <c r="AH47">
+        <v>1003522</v>
+      </c>
+      <c r="AI47">
+        <v>1080815</v>
+      </c>
+      <c r="AJ47">
+        <v>3104341</v>
+      </c>
+      <c r="AK47">
+        <v>1957702</v>
+      </c>
+      <c r="AL47">
+        <v>1859090</v>
+      </c>
+      <c r="AM47">
+        <v>1878033</v>
+      </c>
+      <c r="AN47">
+        <v>1899911</v>
+      </c>
+      <c r="AO47">
+        <v>1967547</v>
+      </c>
+      <c r="AP47">
+        <v>2824539</v>
+      </c>
+      <c r="AQ47">
+        <v>4117754</v>
+      </c>
+      <c r="AR47">
+        <v>2811859</v>
+      </c>
+      <c r="AS47">
+        <v>4096368</v>
+      </c>
+      <c r="AT47">
+        <v>4193504</v>
+      </c>
+    </row>
+    <row r="48" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C48">
         <v>30000</v>
       </c>
@@ -14377,7 +14562,7 @@
         <v>98125.999989999997</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C49">
         <v>30000</v>
       </c>
@@ -14399,8 +14584,14 @@
       <c r="R49">
         <v>1522008</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="V49">
+        <v>100</v>
+      </c>
+      <c r="W49">
+        <v>451927</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C50">
         <v>50000</v>
       </c>
@@ -14422,8 +14613,14 @@
       <c r="R50">
         <v>719600</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="V50">
+        <v>100</v>
+      </c>
+      <c r="W50">
+        <v>435019</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C51">
         <v>50000</v>
       </c>
@@ -14445,8 +14642,14 @@
       <c r="R51">
         <v>347827</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="V51">
+        <v>100</v>
+      </c>
+      <c r="W51">
+        <v>456150</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C52">
         <v>50000</v>
       </c>
@@ -14468,8 +14671,14 @@
       <c r="R52">
         <v>1248361</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="V52">
+        <v>100</v>
+      </c>
+      <c r="W52">
+        <v>528693</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C53">
         <v>50000</v>
       </c>
@@ -14491,8 +14700,14 @@
       <c r="R53">
         <v>1335270.3999999999</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="V53">
+        <v>100</v>
+      </c>
+      <c r="W53">
+        <v>356896</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C54">
         <v>50000</v>
       </c>
@@ -14514,8 +14729,14 @@
       <c r="R54">
         <v>709359.4</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="V54">
+        <v>500</v>
+      </c>
+      <c r="W54">
+        <v>1009774</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C55">
         <v>75000</v>
       </c>
@@ -14537,8 +14758,14 @@
       <c r="R55">
         <v>1604629.4</v>
       </c>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="V55">
+        <v>500</v>
+      </c>
+      <c r="W55">
+        <v>997596</v>
+      </c>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C56">
         <v>75000</v>
       </c>
@@ -14560,8 +14787,14 @@
       <c r="R56">
         <v>2162691.6</v>
       </c>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="V56">
+        <v>500</v>
+      </c>
+      <c r="W56">
+        <v>792222</v>
+      </c>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C57">
         <v>75000</v>
       </c>
@@ -14583,8 +14816,14 @@
       <c r="R57">
         <v>1486567.6</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="V57">
+        <v>500</v>
+      </c>
+      <c r="W57">
+        <v>687703</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C58">
         <v>75000</v>
       </c>
@@ -14606,8 +14845,14 @@
       <c r="R58">
         <v>155926.79999999999</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="V58">
+        <v>500</v>
+      </c>
+      <c r="W58">
+        <v>706263</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C59">
         <v>75000</v>
       </c>
@@ -14629,8 +14874,14 @@
       <c r="R59">
         <v>8296.1999909999995</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="V59">
+        <v>1000</v>
+      </c>
+      <c r="W59">
+        <v>1030548</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C60">
         <v>100000</v>
       </c>
@@ -14652,8 +14903,14 @@
       <c r="R60">
         <v>91235.199989999994</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="V60">
+        <v>1000</v>
+      </c>
+      <c r="W60">
+        <v>1185038</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C61">
         <v>100000</v>
       </c>
@@ -14675,8 +14932,14 @@
       <c r="R61">
         <v>349554.8</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="V61">
+        <v>1000</v>
+      </c>
+      <c r="W61">
+        <v>1003522</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C62">
         <v>100000</v>
       </c>
@@ -14698,8 +14961,14 @@
       <c r="R62">
         <v>405950.2</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="V62">
+        <v>1000</v>
+      </c>
+      <c r="W62">
+        <v>1080815</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C63">
         <v>100000</v>
       </c>
@@ -14722,8 +14991,14 @@
         <f>AVERAGE(R43:R62)</f>
         <v>770391.33999855013</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="V63">
+        <v>1000</v>
+      </c>
+      <c r="W63">
+        <v>3104341</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C64">
         <v>100000</v>
       </c>
@@ -14742,8 +15017,14 @@
       <c r="P64">
         <v>54198.742359999997</v>
       </c>
-    </row>
-    <row r="65" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="V64">
+        <v>2000</v>
+      </c>
+      <c r="W64">
+        <v>1957702</v>
+      </c>
+    </row>
+    <row r="65" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C65">
         <v>200000</v>
       </c>
@@ -14762,8 +15043,14 @@
       <c r="P65">
         <v>825791.43559999997</v>
       </c>
-    </row>
-    <row r="66" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="V65">
+        <v>2000</v>
+      </c>
+      <c r="W65">
+        <v>1859090</v>
+      </c>
+    </row>
+    <row r="66" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C66">
         <v>200000</v>
       </c>
@@ -14782,8 +15069,14 @@
       <c r="P66">
         <v>467423.56439999997</v>
       </c>
-    </row>
-    <row r="67" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="V66">
+        <v>2000</v>
+      </c>
+      <c r="W66">
+        <v>1878033</v>
+      </c>
+    </row>
+    <row r="67" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C67">
         <v>200000</v>
       </c>
@@ -14802,8 +15095,14 @@
       <c r="P67">
         <v>838471.43559999997</v>
       </c>
-    </row>
-    <row r="68" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="V67">
+        <v>2000</v>
+      </c>
+      <c r="W67">
+        <v>1899911</v>
+      </c>
+    </row>
+    <row r="68" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C68">
         <v>200000</v>
       </c>
@@ -14822,8 +15121,14 @@
       <c r="P68">
         <v>446037.56439999997</v>
       </c>
-    </row>
-    <row r="69" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="V68">
+        <v>2000</v>
+      </c>
+      <c r="W68">
+        <v>1967547</v>
+      </c>
+    </row>
+    <row r="69" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C69">
         <v>200000</v>
       </c>
@@ -14842,8 +15147,14 @@
       <c r="P69">
         <v>543173.56440000003</v>
       </c>
-    </row>
-    <row r="70" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="V69">
+        <v>5000</v>
+      </c>
+      <c r="W69">
+        <v>2824539</v>
+      </c>
+    </row>
+    <row r="70" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C70">
         <v>250000</v>
       </c>
@@ -14862,8 +15173,14 @@
       <c r="P70">
         <v>1129980.493</v>
       </c>
-    </row>
-    <row r="71" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="V70">
+        <v>5000</v>
+      </c>
+      <c r="W70">
+        <v>4117754</v>
+      </c>
+    </row>
+    <row r="71" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C71">
         <v>250000</v>
       </c>
@@ -14882,8 +15199,14 @@
       <c r="P71">
         <v>293901.50660000002</v>
       </c>
-    </row>
-    <row r="72" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="V71">
+        <v>5000</v>
+      </c>
+      <c r="W71">
+        <v>2811859</v>
+      </c>
+    </row>
+    <row r="72" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C72">
         <v>250000</v>
       </c>
@@ -14902,8 +15225,14 @@
       <c r="P72">
         <v>1947706.493</v>
       </c>
-    </row>
-    <row r="73" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="V72">
+        <v>5000</v>
+      </c>
+      <c r="W72">
+        <v>4096368</v>
+      </c>
+    </row>
+    <row r="73" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C73">
         <v>250000</v>
       </c>
@@ -14922,8 +15251,14 @@
       <c r="P73">
         <v>880279.49340000004</v>
       </c>
-    </row>
-    <row r="74" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="V73">
+        <v>5000</v>
+      </c>
+      <c r="W73">
+        <v>4193504</v>
+      </c>
+    </row>
+    <row r="74" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C74">
         <v>250000</v>
       </c>
@@ -14943,7 +15278,7 @@
         <v>2476467.4929999998</v>
       </c>
     </row>
-    <row r="75" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:23" x14ac:dyDescent="0.25">
       <c r="H75" t="s">
         <v>85</v>
       </c>
@@ -14957,7 +15292,7 @@
         <v>719390.17989999999</v>
       </c>
     </row>
-    <row r="76" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:23" x14ac:dyDescent="0.25">
       <c r="H76" t="s">
         <v>87</v>
       </c>
@@ -14971,7 +15306,7 @@
         <v>93479.179919999995</v>
       </c>
     </row>
-    <row r="77" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:23" x14ac:dyDescent="0.25">
       <c r="H77" t="s">
         <v>89</v>
       </c>
@@ -14985,7 +15320,7 @@
         <v>988749.17989999999</v>
       </c>
     </row>
-    <row r="78" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:23" x14ac:dyDescent="0.25">
       <c r="H78" t="s">
         <v>91</v>
       </c>
@@ -14999,7 +15334,7 @@
         <v>2778571.82</v>
       </c>
     </row>
-    <row r="79" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:23" x14ac:dyDescent="0.25">
       <c r="H79" t="s">
         <v>93</v>
       </c>
@@ -15013,7 +15348,7 @@
         <v>2102447.8199999998</v>
       </c>
     </row>
-    <row r="80" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:23" x14ac:dyDescent="0.25">
       <c r="H80" t="s">
         <v>96</v>
       </c>
@@ -15251,7 +15586,7 @@
         <v>1678177.145</v>
       </c>
     </row>
-    <row r="97" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="8:22" x14ac:dyDescent="0.25">
       <c r="H97" t="s">
         <v>133</v>
       </c>
@@ -15265,7 +15600,7 @@
         <v>2474165.855</v>
       </c>
     </row>
-    <row r="98" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="8:22" x14ac:dyDescent="0.25">
       <c r="H98" t="s">
         <v>135</v>
       </c>
@@ -15279,7 +15614,7 @@
         <v>1570911.855</v>
       </c>
     </row>
-    <row r="99" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="8:22" x14ac:dyDescent="0.25">
       <c r="H99" t="s">
         <v>137</v>
       </c>
@@ -15293,7 +15628,7 @@
         <v>3579728.145</v>
       </c>
     </row>
-    <row r="100" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="8:22" x14ac:dyDescent="0.25">
       <c r="H100" t="s">
         <v>140</v>
       </c>
@@ -15307,7 +15642,7 @@
         <v>205954.68659999999</v>
       </c>
     </row>
-    <row r="101" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="8:22" x14ac:dyDescent="0.25">
       <c r="H101" t="s">
         <v>142</v>
       </c>
@@ -15321,7 +15656,7 @@
         <v>136753.68659999999</v>
       </c>
     </row>
-    <row r="102" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="8:22" x14ac:dyDescent="0.25">
       <c r="H102" t="s">
         <v>144</v>
       </c>
@@ -15335,7 +15670,7 @@
         <v>2153756.3130000001</v>
       </c>
     </row>
-    <row r="103" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="8:22" x14ac:dyDescent="0.25">
       <c r="H103" t="s">
         <v>146</v>
       </c>
@@ -15349,7 +15684,7 @@
         <v>651167.68660000002</v>
       </c>
     </row>
-    <row r="104" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="8:22" x14ac:dyDescent="0.25">
       <c r="H104" t="s">
         <v>148</v>
       </c>
@@ -15363,7 +15698,7 @@
         <v>1524356.6869999999</v>
       </c>
     </row>
-    <row r="105" spans="8:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="8:22" x14ac:dyDescent="0.25">
       <c r="H105" t="s">
         <v>151</v>
       </c>
@@ -15376,8 +15711,11 @@
       <c r="P105">
         <v>1759894.32</v>
       </c>
-    </row>
-    <row r="106" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="V105">
+        <v>60058.175029999999</v>
+      </c>
+    </row>
+    <row r="106" spans="8:22" x14ac:dyDescent="0.25">
       <c r="H106" t="s">
         <v>153</v>
       </c>
@@ -15390,8 +15728,11 @@
       <c r="P106">
         <v>6692095.6799999997</v>
       </c>
-    </row>
-    <row r="107" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="V106">
+        <v>76966.175029999999</v>
+      </c>
+    </row>
+    <row r="107" spans="8:22" x14ac:dyDescent="0.25">
       <c r="H107" t="s">
         <v>155</v>
       </c>
@@ -15404,8 +15745,11 @@
       <c r="P107">
         <v>5967660.3200000003</v>
       </c>
-    </row>
-    <row r="108" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="V107">
+        <v>55835.175029999999</v>
+      </c>
+    </row>
+    <row r="108" spans="8:22" x14ac:dyDescent="0.25">
       <c r="H108" t="s">
         <v>157</v>
       </c>
@@ -15418,8 +15762,11 @@
       <c r="P108">
         <v>2556442.3199999998</v>
       </c>
-    </row>
-    <row r="109" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="V108">
+        <v>16707.824970000001</v>
+      </c>
+    </row>
+    <row r="109" spans="8:22" x14ac:dyDescent="0.25">
       <c r="H109" t="s">
         <v>159</v>
       </c>
@@ -15432,8 +15779,11 @@
       <c r="P109">
         <v>3599219.68</v>
       </c>
-    </row>
-    <row r="110" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="V109">
+        <v>155089.17499999999</v>
+      </c>
+    </row>
+    <row r="110" spans="8:22" x14ac:dyDescent="0.25">
       <c r="H110" t="s">
         <v>162</v>
       </c>
@@ -15446,8 +15796,11 @@
       <c r="P110">
         <v>3104814.0410000002</v>
       </c>
-    </row>
-    <row r="111" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="V110">
+        <v>144418.7683</v>
+      </c>
+    </row>
+    <row r="111" spans="8:22" x14ac:dyDescent="0.25">
       <c r="H111" t="s">
         <v>164</v>
       </c>
@@ -15460,8 +15813,11 @@
       <c r="P111">
         <v>3651746.9589999998</v>
       </c>
-    </row>
-    <row r="112" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="V111">
+        <v>132240.7683</v>
+      </c>
+    </row>
+    <row r="112" spans="8:22" x14ac:dyDescent="0.25">
       <c r="H112" t="s">
         <v>166</v>
       </c>
@@ -15474,8 +15830,11 @@
       <c r="P112">
         <v>616441.04059999995</v>
       </c>
-    </row>
-    <row r="113" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="V112">
+        <v>73133.231690000001</v>
+      </c>
+    </row>
+    <row r="113" spans="4:22" x14ac:dyDescent="0.25">
       <c r="H113" t="s">
         <v>168</v>
       </c>
@@ -15488,8 +15847,11 @@
       <c r="P113">
         <v>5452539.0410000002</v>
       </c>
-    </row>
-    <row r="114" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="V113">
+        <v>177652.2317</v>
+      </c>
+    </row>
+    <row r="114" spans="4:22" x14ac:dyDescent="0.25">
       <c r="H114" t="s">
         <v>170</v>
       </c>
@@ -15502,8 +15864,11 @@
       <c r="P114">
         <v>5523338.9589999998</v>
       </c>
-    </row>
-    <row r="115" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="V114">
+        <v>159092.2317</v>
+      </c>
+    </row>
+    <row r="115" spans="4:22" x14ac:dyDescent="0.25">
       <c r="H115" t="s">
         <v>173</v>
       </c>
@@ -15517,8 +15882,11 @@
         <f>AVERAGE(P45:P114)</f>
         <v>1378252.2723040001</v>
       </c>
-    </row>
-    <row r="116" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="V115">
+        <v>251151.0441</v>
+      </c>
+    </row>
+    <row r="116" spans="4:22" x14ac:dyDescent="0.25">
       <c r="H116" t="s">
         <v>175</v>
       </c>
@@ -15528,8 +15896,11 @@
       <c r="N116" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="117" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="V116">
+        <v>96661.044139999998</v>
+      </c>
+    </row>
+    <row r="117" spans="4:22" x14ac:dyDescent="0.25">
       <c r="H117" t="s">
         <v>177</v>
       </c>
@@ -15539,8 +15910,11 @@
       <c r="N117" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="118" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="V117">
+        <v>278177.0441</v>
+      </c>
+    </row>
+    <row r="118" spans="4:22" x14ac:dyDescent="0.25">
       <c r="H118" t="s">
         <v>179</v>
       </c>
@@ -15550,41 +15924,82 @@
       <c r="N118" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="121" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="V118">
+        <v>200884.0441</v>
+      </c>
+    </row>
+    <row r="119" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="V119">
+        <v>1822641.956</v>
+      </c>
+    </row>
+    <row r="120" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="V120">
+        <v>72122.141059999994</v>
+      </c>
+    </row>
+    <row r="121" spans="4:22" x14ac:dyDescent="0.25">
       <c r="H121" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="124" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="V121">
+        <v>170734.14110000001</v>
+      </c>
+    </row>
+    <row r="122" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="V122">
+        <v>151791.14110000001</v>
+      </c>
+    </row>
+    <row r="123" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="V123">
+        <v>129913.14109999999</v>
+      </c>
+    </row>
+    <row r="124" spans="4:22" x14ac:dyDescent="0.25">
       <c r="R124">
         <v>784265.8</v>
       </c>
-    </row>
-    <row r="125" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="V124">
+        <v>62277.141060000002</v>
+      </c>
+    </row>
+    <row r="125" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D125" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="R125">
         <v>508949.2</v>
       </c>
-    </row>
-    <row r="126" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="V125">
+        <v>773160.20810000005</v>
+      </c>
+    </row>
+    <row r="126" spans="4:22" x14ac:dyDescent="0.25">
       <c r="R126">
         <v>796945.8</v>
       </c>
-    </row>
-    <row r="127" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="V126">
+        <v>520054.79190000001</v>
+      </c>
+    </row>
+    <row r="127" spans="4:22" x14ac:dyDescent="0.25">
       <c r="R127">
         <v>487563.2</v>
       </c>
-    </row>
-    <row r="128" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="V127">
+        <v>785840.20810000005</v>
+      </c>
+    </row>
+    <row r="128" spans="4:22" x14ac:dyDescent="0.25">
       <c r="R128">
         <v>584699.19999999995</v>
       </c>
-    </row>
-    <row r="129" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="V128">
+        <v>498668.79190000001</v>
+      </c>
+    </row>
+    <row r="129" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E129" t="s">
         <v>22</v>
       </c>
@@ -15606,198 +16021,205 @@
       <c r="R129">
         <v>98125.999989999997</v>
       </c>
-    </row>
-    <row r="130" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="V129">
+        <v>595804.79189999995</v>
+      </c>
+    </row>
+    <row r="130" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D130" t="s">
         <v>27</v>
       </c>
       <c r="H130" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J130" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="R130">
         <v>1522008</v>
       </c>
-    </row>
-    <row r="131" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="V130">
+        <f>AVERAGE(V105:V129)</f>
+        <v>298443.01546040003</v>
+      </c>
+    </row>
+    <row r="131" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D131" t="s">
         <v>30</v>
       </c>
       <c r="H131" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J131" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="R131">
         <v>719600</v>
       </c>
     </row>
-    <row r="132" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D132" t="s">
         <v>32</v>
       </c>
       <c r="H132" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J132" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="R132">
         <v>347827</v>
       </c>
     </row>
-    <row r="133" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D133" t="s">
         <v>34</v>
       </c>
       <c r="H133" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J133" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="R133">
         <v>1248361</v>
       </c>
     </row>
-    <row r="134" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D134" t="s">
         <v>36</v>
       </c>
       <c r="H134" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J134" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="R134">
         <v>1335270.3999999999</v>
       </c>
     </row>
-    <row r="135" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D135" t="s">
         <v>38</v>
       </c>
       <c r="H135" t="s">
+        <v>485</v>
+      </c>
+      <c r="J135" t="s">
         <v>486</v>
-      </c>
-      <c r="J135" t="s">
-        <v>487</v>
       </c>
       <c r="R135">
         <v>709359.4</v>
       </c>
     </row>
-    <row r="136" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D136" t="s">
         <v>41</v>
       </c>
       <c r="H136" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J136" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="R136">
         <v>1604629.4</v>
       </c>
     </row>
-    <row r="137" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D137" t="s">
         <v>43</v>
       </c>
       <c r="H137" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J137" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="R137">
         <v>2162691.6</v>
       </c>
     </row>
-    <row r="138" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D138" t="s">
         <v>45</v>
       </c>
       <c r="H138" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J138" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="R138">
         <v>1486567.6</v>
       </c>
     </row>
-    <row r="139" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D139" t="s">
         <v>47</v>
       </c>
       <c r="H139" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J139" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="R139">
         <v>155926.79999999999</v>
       </c>
     </row>
-    <row r="140" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D140" t="s">
         <v>49</v>
       </c>
       <c r="H140" t="s">
+        <v>491</v>
+      </c>
+      <c r="J140" t="s">
         <v>492</v>
-      </c>
-      <c r="J140" t="s">
-        <v>493</v>
       </c>
       <c r="R140">
         <v>8296.1999909999995</v>
       </c>
     </row>
-    <row r="141" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D141" t="s">
         <v>52</v>
       </c>
       <c r="H141" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J141" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="R141">
         <v>91235.199989999994</v>
       </c>
     </row>
-    <row r="142" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D142" t="s">
         <v>54</v>
       </c>
       <c r="H142" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J142" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="R142">
         <v>349554.8</v>
       </c>
     </row>
-    <row r="143" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D143" t="s">
         <v>56</v>
       </c>
       <c r="H143" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J143" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K143" t="s">
         <v>24</v>
@@ -15812,21 +16234,21 @@
         <v>405950.2</v>
       </c>
     </row>
-    <row r="144" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D144" t="s">
         <v>58</v>
       </c>
       <c r="H144" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J144" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K144" t="s">
+        <v>447</v>
+      </c>
+      <c r="M144" t="s">
         <v>448</v>
-      </c>
-      <c r="M144" t="s">
-        <v>449</v>
       </c>
       <c r="O144">
         <v>10717.999830000001</v>
@@ -15841,16 +16263,16 @@
         <v>60</v>
       </c>
       <c r="H145" t="s">
+        <v>497</v>
+      </c>
+      <c r="J145" t="s">
         <v>498</v>
       </c>
-      <c r="J145" t="s">
-        <v>499</v>
-      </c>
       <c r="K145" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M145" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="O145">
         <v>10413.000169999999</v>
@@ -15861,16 +16283,16 @@
         <v>63</v>
       </c>
       <c r="H146" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J146" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K146" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M146" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O146">
         <v>82956.000169999999</v>
@@ -15881,16 +16303,16 @@
         <v>65</v>
       </c>
       <c r="H147" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J147" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K147" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M147" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="O147">
         <v>88840.999830000001</v>
@@ -15901,16 +16323,16 @@
         <v>67</v>
       </c>
       <c r="H148" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J148" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K148" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M148" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="O148">
         <v>171062.4001</v>
@@ -15921,16 +16343,16 @@
         <v>69</v>
       </c>
       <c r="H149" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J149" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K149" t="s">
+        <v>453</v>
+      </c>
+      <c r="M149" t="s">
         <v>454</v>
-      </c>
-      <c r="M149" t="s">
-        <v>455</v>
       </c>
       <c r="O149">
         <v>158884.4001</v>
@@ -15938,10 +16360,10 @@
     </row>
     <row r="150" spans="4:15" x14ac:dyDescent="0.25">
       <c r="K150" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M150" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="O150">
         <v>46489.599920000001</v>
@@ -15949,10 +16371,10 @@
     </row>
     <row r="151" spans="4:15" x14ac:dyDescent="0.25">
       <c r="K151" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M151" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="O151">
         <v>151008.5999</v>
@@ -15960,13 +16382,13 @@
     </row>
     <row r="152" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D152" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K152" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M152" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="O152">
         <v>132448.5999</v>
@@ -15977,10 +16399,10 @@
         <v>47</v>
       </c>
       <c r="K153" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M153" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O153">
         <v>450304.79989999998</v>
@@ -15991,10 +16413,10 @@
         <v>49</v>
       </c>
       <c r="K154" t="s">
+        <v>459</v>
+      </c>
+      <c r="M154" t="s">
         <v>460</v>
-      </c>
-      <c r="M154" t="s">
-        <v>461</v>
       </c>
       <c r="O154">
         <v>295814.79989999998</v>
@@ -16005,10 +16427,10 @@
         <v>52</v>
       </c>
       <c r="K155" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M155" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O155">
         <v>477330.79989999998</v>
@@ -16019,10 +16441,10 @@
         <v>54</v>
       </c>
       <c r="K156" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M156" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="O156">
         <v>400037.79989999998</v>
@@ -16033,10 +16455,10 @@
         <v>56</v>
       </c>
       <c r="K157" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M157" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="O157">
         <v>1623488.2</v>
@@ -16047,10 +16469,10 @@
         <v>58</v>
       </c>
       <c r="K158" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M158" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O158">
         <v>45245.399960000002</v>
@@ -16061,10 +16483,10 @@
         <v>60</v>
       </c>
       <c r="K159" t="s">
+        <v>465</v>
+      </c>
+      <c r="M159" t="s">
         <v>466</v>
-      </c>
-      <c r="M159" t="s">
-        <v>467</v>
       </c>
       <c r="O159">
         <v>53366.600039999998</v>
@@ -16075,10 +16497,10 @@
         <v>63</v>
       </c>
       <c r="K160" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="M160" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O160">
         <v>34423.600039999998</v>
@@ -16089,10 +16511,10 @@
         <v>65</v>
       </c>
       <c r="K161" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="M161" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O161">
         <v>12545.600039999999</v>
@@ -16103,10 +16525,10 @@
         <v>67</v>
       </c>
       <c r="K162" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="M162" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="O162">
         <v>55090.399960000002</v>
@@ -16117,10 +16539,10 @@
         <v>69</v>
       </c>
       <c r="K163" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="M163" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O163">
         <v>784265.8003</v>
@@ -16131,10 +16553,10 @@
         <v>71</v>
       </c>
       <c r="K164" t="s">
+        <v>471</v>
+      </c>
+      <c r="M164" t="s">
         <v>472</v>
-      </c>
-      <c r="M164" t="s">
-        <v>473</v>
       </c>
       <c r="O164">
         <v>508949.1997</v>
@@ -16145,10 +16567,10 @@
         <v>74</v>
       </c>
       <c r="K165" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M165" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O165">
         <v>796945.8003</v>
@@ -16159,10 +16581,10 @@
         <v>76</v>
       </c>
       <c r="K166" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M166" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="O166">
         <v>487563.1997</v>
@@ -16173,10 +16595,10 @@
         <v>78</v>
       </c>
       <c r="K167" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M167" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O167">
         <v>584699.1997</v>
@@ -16187,10 +16609,10 @@
         <v>80</v>
       </c>
       <c r="K168" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M168" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O168">
         <f>AVERAGE(O143:O167)</f>
@@ -16199,7 +16621,7 @@
     </row>
     <row r="171" spans="5:15" x14ac:dyDescent="0.25">
       <c r="F171" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="176" spans="5:15" x14ac:dyDescent="0.25">
@@ -16222,452 +16644,698 @@
         <v>26</v>
       </c>
     </row>
-    <row r="177" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E177" t="s">
         <v>27</v>
       </c>
       <c r="J177" t="s">
+        <v>504</v>
+      </c>
+      <c r="L177" t="s">
         <v>505</v>
-      </c>
-      <c r="L177" t="s">
-        <v>506</v>
       </c>
       <c r="N177">
         <v>302279.64500000002</v>
       </c>
     </row>
-    <row r="178" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E178" t="s">
         <v>30</v>
       </c>
       <c r="J178" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L178" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N178">
         <v>466502.64500000002</v>
       </c>
     </row>
-    <row r="179" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E179" t="s">
         <v>32</v>
       </c>
       <c r="J179" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L179" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="N179">
         <v>549441.64500000002</v>
       </c>
     </row>
-    <row r="180" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E180" t="s">
         <v>34</v>
       </c>
       <c r="J180" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L180" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="N180">
         <v>108651.645</v>
       </c>
-    </row>
-    <row r="181" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="R180" t="s">
+        <v>22</v>
+      </c>
+      <c r="S180" t="s">
+        <v>23</v>
+      </c>
+      <c r="T180" t="s">
+        <v>24</v>
+      </c>
+      <c r="V180" t="s">
+        <v>25</v>
+      </c>
+      <c r="W180" t="s">
+        <v>24</v>
+      </c>
+      <c r="X180" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="181" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E181" t="s">
         <v>36</v>
       </c>
       <c r="J181" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L181" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="N181">
         <v>864156.64500000002</v>
       </c>
-    </row>
-    <row r="182" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="R181" t="s">
+        <v>27</v>
+      </c>
+      <c r="W181" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y181" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="182" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E182" t="s">
         <v>38</v>
       </c>
       <c r="J182" t="s">
+        <v>510</v>
+      </c>
+      <c r="L182" t="s">
         <v>511</v>
-      </c>
-      <c r="L182" t="s">
-        <v>512</v>
       </c>
       <c r="N182">
         <v>1615928.527</v>
       </c>
-    </row>
-    <row r="183" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="R182" t="s">
+        <v>30</v>
+      </c>
+      <c r="W182" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y182" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="183" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E183" t="s">
         <v>41</v>
       </c>
       <c r="J183" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L183" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="N183">
         <v>644532.47259999998</v>
       </c>
-    </row>
-    <row r="184" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="R183" t="s">
+        <v>32</v>
+      </c>
+      <c r="W183" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y183" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="184" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E184" t="s">
         <v>43</v>
       </c>
       <c r="J184" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L184" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="N184">
         <v>1611286.527</v>
       </c>
-    </row>
-    <row r="185" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="R184" t="s">
+        <v>34</v>
+      </c>
+      <c r="W184" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y184" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="185" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E185" t="s">
         <v>45</v>
       </c>
       <c r="J185" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L185" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="N185">
         <v>2270345.5269999998</v>
       </c>
-    </row>
-    <row r="186" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="R185" t="s">
+        <v>36</v>
+      </c>
+      <c r="W185" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y185" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="186" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E186" t="s">
         <v>47</v>
       </c>
       <c r="J186" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L186" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N186">
         <v>417952.47259999998</v>
       </c>
-    </row>
-    <row r="187" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="R186" t="s">
+        <v>38</v>
+      </c>
+      <c r="W186" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y186" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="187" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E187" t="s">
         <v>49</v>
       </c>
       <c r="J187" t="s">
+        <v>516</v>
+      </c>
+      <c r="L187" t="s">
         <v>517</v>
-      </c>
-      <c r="L187" t="s">
-        <v>518</v>
       </c>
       <c r="N187">
         <v>4027167.2969999998</v>
       </c>
-    </row>
-    <row r="188" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="R187" t="s">
+        <v>41</v>
+      </c>
+      <c r="W187" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y187" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="188" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E188" t="s">
         <v>52</v>
       </c>
       <c r="J188" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L188" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N188">
         <v>1250984.703</v>
       </c>
-    </row>
-    <row r="189" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="R188" t="s">
+        <v>43</v>
+      </c>
+      <c r="W188" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y188" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="189" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E189" t="s">
         <v>54</v>
       </c>
       <c r="J189" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L189" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N189">
         <v>2244148.2969999998</v>
       </c>
-    </row>
-    <row r="190" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="R189" t="s">
+        <v>45</v>
+      </c>
+      <c r="W189" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y189" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="190" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E190" t="s">
         <v>56</v>
       </c>
       <c r="J190" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L190" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N190">
         <v>715456.70259999996</v>
       </c>
-    </row>
-    <row r="191" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="R190" t="s">
+        <v>47</v>
+      </c>
+      <c r="W190" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y190" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="191" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E191" t="s">
         <v>58</v>
       </c>
       <c r="J191" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L191" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N191">
         <v>1500558.703</v>
       </c>
-    </row>
-    <row r="192" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="R191" t="s">
+        <v>49</v>
+      </c>
+      <c r="W191" t="s">
+        <v>561</v>
+      </c>
+      <c r="Y191" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="192" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E192" t="s">
         <v>60</v>
       </c>
       <c r="J192" t="s">
+        <v>522</v>
+      </c>
+      <c r="L192" t="s">
         <v>523</v>
-      </c>
-      <c r="L192" t="s">
-        <v>524</v>
       </c>
       <c r="N192">
         <v>1117624.898</v>
       </c>
-    </row>
-    <row r="193" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="R192" t="s">
+        <v>52</v>
+      </c>
+      <c r="W192" t="s">
+        <v>561</v>
+      </c>
+      <c r="Y192" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="193" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E193" t="s">
         <v>63</v>
       </c>
       <c r="J193" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L193" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="N193">
         <v>1570562.102</v>
       </c>
-    </row>
-    <row r="194" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="R193" t="s">
+        <v>54</v>
+      </c>
+      <c r="W193" t="s">
+        <v>561</v>
+      </c>
+      <c r="Y193" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="194" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E194" t="s">
         <v>65</v>
       </c>
       <c r="J194" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L194" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="N194">
         <v>2581780.898</v>
       </c>
-    </row>
-    <row r="195" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="R194" t="s">
+        <v>56</v>
+      </c>
+      <c r="W194" t="s">
+        <v>561</v>
+      </c>
+      <c r="Y194" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="195" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E195" t="s">
         <v>67</v>
       </c>
       <c r="J195" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L195" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="N195">
         <v>1678526.898</v>
       </c>
-    </row>
-    <row r="196" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="R195" t="s">
+        <v>58</v>
+      </c>
+      <c r="W195" t="s">
+        <v>561</v>
+      </c>
+      <c r="Y195" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="196" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E196" t="s">
         <v>69</v>
       </c>
       <c r="J196" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L196" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N196">
         <v>3472113.102</v>
       </c>
-    </row>
-    <row r="197" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="R196" t="s">
+        <v>60</v>
+      </c>
+      <c r="W196" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y196" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="197" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E197" t="s">
         <v>71</v>
       </c>
       <c r="J197" t="s">
+        <v>528</v>
+      </c>
+      <c r="L197" t="s">
         <v>529</v>
-      </c>
-      <c r="L197" t="s">
-        <v>530</v>
       </c>
       <c r="N197">
         <v>210027.56349999999</v>
       </c>
-    </row>
-    <row r="198" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="R197" t="s">
+        <v>63</v>
+      </c>
+      <c r="W197" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y197" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="198" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E198" t="s">
         <v>74</v>
       </c>
       <c r="J198" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L198" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="N198">
         <v>140826.56349999999</v>
       </c>
-    </row>
-    <row r="199" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="R198" t="s">
+        <v>65</v>
+      </c>
+      <c r="W198" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y198" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="199" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E199" t="s">
         <v>76</v>
       </c>
       <c r="J199" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L199" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="N199">
         <v>2149683.4360000002</v>
       </c>
-    </row>
-    <row r="200" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="R199" t="s">
+        <v>67</v>
+      </c>
+      <c r="W199" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y199" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="200" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E200" t="s">
         <v>78</v>
       </c>
       <c r="J200" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L200" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="N200">
         <v>655240.56350000005</v>
       </c>
-    </row>
-    <row r="201" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="R200" t="s">
+        <v>69</v>
+      </c>
+      <c r="W200" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y200" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="201" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E201" t="s">
         <v>80</v>
       </c>
       <c r="J201" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L201" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="N201">
         <v>1528429.564</v>
       </c>
-    </row>
-    <row r="202" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="R201" t="s">
+        <v>71</v>
+      </c>
+      <c r="W201" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y201" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="202" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E202" t="s">
         <v>82</v>
       </c>
       <c r="J202" t="s">
+        <v>534</v>
+      </c>
+      <c r="L202" t="s">
         <v>535</v>
-      </c>
-      <c r="L202" t="s">
-        <v>536</v>
       </c>
       <c r="N202">
         <v>1744108.7420000001</v>
       </c>
-    </row>
-    <row r="203" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="R202" t="s">
+        <v>74</v>
+      </c>
+      <c r="W202" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y202" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="203" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E203" t="s">
         <v>85</v>
       </c>
       <c r="J203" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L203" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="N203">
         <v>6707881.2580000004</v>
       </c>
-    </row>
-    <row r="204" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="R203" t="s">
+        <v>76</v>
+      </c>
+      <c r="W203" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y203" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="204" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E204" t="s">
         <v>87</v>
       </c>
       <c r="J204" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L204" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="N204">
         <v>5951874.7419999996</v>
       </c>
-    </row>
-    <row r="205" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="R204" t="s">
+        <v>78</v>
+      </c>
+      <c r="W204" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y204" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="205" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E205" t="s">
         <v>89</v>
       </c>
       <c r="J205" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L205" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="N205">
         <v>2540656.7420000001</v>
       </c>
-    </row>
-    <row r="206" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="R205" t="s">
+        <v>80</v>
+      </c>
+      <c r="W205" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y205" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="206" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E206" t="s">
         <v>91</v>
       </c>
       <c r="J206" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L206" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="N206">
         <v>3615005.2579999999</v>
       </c>
     </row>
-    <row r="207" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E207" t="s">
         <v>93</v>
       </c>
       <c r="J207" t="s">
+        <v>540</v>
+      </c>
+      <c r="L207" t="s">
         <v>541</v>
-      </c>
-      <c r="L207" t="s">
-        <v>542</v>
       </c>
       <c r="N207">
         <v>3110356.4130000002</v>
       </c>
     </row>
-    <row r="208" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E208" t="s">
         <v>96</v>
       </c>
       <c r="J208" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L208" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="N208">
         <v>3646204.5869999998</v>
+      </c>
+      <c r="R208" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="209" spans="5:14" x14ac:dyDescent="0.25">
@@ -16675,10 +17343,10 @@
         <v>98</v>
       </c>
       <c r="J209" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L209" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="N209">
         <v>621983.41269999999</v>
@@ -16689,10 +17357,10 @@
         <v>100</v>
       </c>
       <c r="J210" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L210" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="N210">
         <v>5458081.4129999997</v>
@@ -16703,10 +17371,10 @@
         <v>102</v>
       </c>
       <c r="J211" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L211" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="N211">
         <v>5517796.5870000003</v>
@@ -16720,7 +17388,7 @@
     </row>
     <row r="214" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E214" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
